--- a/docs/Computing and Technology EE allocation 2022-23_v3.xlsx
+++ b/docs/Computing and Technology EE allocation 2022-23_v3.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26605"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ssu-my.sharepoint.com/personal/martin_reid_solent_ac_uk/Documents/solent_store/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A06CBCF-0E11-4C34-A026-82BA149E098E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="8_{5A06CBCF-0E11-4C34-A026-82BA149E098E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E78D98E-8108-4D20-B239-BF66692DEA85}"/>
   <bookViews>
     <workbookView xWindow="7395" yWindow="390" windowWidth="33390" windowHeight="20220" xr2:uid="{6B39098D-6163-4A05-8B22-E3E3C0B0722D}"/>
   </bookViews>
   <sheets>
     <sheet name="All Modules" sheetId="1" r:id="rId1"/>
-    <sheet name="UG_Network_Cyber" sheetId="2" r:id="rId2"/>
-    <sheet name="UG_Comp_Soft Eng" sheetId="3" r:id="rId3"/>
-    <sheet name="PG_15_Credits" sheetId="4" r:id="rId4"/>
-    <sheet name="MAIDS" sheetId="5" r:id="rId5"/>
-    <sheet name="OLD CODE &amp; NOT RUNNING" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId2"/>
+    <sheet name="UG_Network_Cyber" sheetId="2" r:id="rId3"/>
+    <sheet name="UG_Comp_Soft Eng" sheetId="3" r:id="rId4"/>
+    <sheet name="PG_15_Credits" sheetId="4" r:id="rId5"/>
+    <sheet name="MAIDS" sheetId="5" r:id="rId6"/>
+    <sheet name="OLD CODE &amp; NOT RUNNING" sheetId="6" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'All Modules'!$A$1:$O$233</definedName>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2679" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2812" uniqueCount="544">
   <si>
     <t>Module Code</t>
   </si>
@@ -634,7 +635,7 @@
     <t xml:space="preserve">SOFT ENG &amp; APPRENTICES </t>
   </si>
   <si>
-    <t>N/A ??</t>
+    <t>NEED EE</t>
   </si>
   <si>
     <t>COM423</t>
@@ -892,6 +893,9 @@
     <t>COM529 1</t>
   </si>
   <si>
+    <t>Sorted with Quality Office</t>
+  </si>
+  <si>
     <t>COM530</t>
   </si>
   <si>
@@ -1637,13 +1641,49 @@
   </si>
   <si>
     <t>U</t>
+  </si>
+  <si>
+    <t>semester</t>
+  </si>
+  <si>
+    <t>Module Instance Subject Area</t>
+  </si>
+  <si>
+    <t>Module Instance Faculty/School</t>
+  </si>
+  <si>
+    <t>Module instances</t>
+  </si>
+  <si>
+    <t>redones are those that rita sent, perhaps these are 21/22 allocation which we may have updated in 22/23</t>
+  </si>
+  <si>
+    <t>Computing &amp; Technology</t>
+  </si>
+  <si>
+    <t>Faculty of Business, Law and Digital Technologies</t>
+  </si>
+  <si>
+    <t>ISM400</t>
+  </si>
+  <si>
+    <t>Business Information Management</t>
+  </si>
+  <si>
+    <t>COM407/COM418</t>
+  </si>
+  <si>
+    <t>Jan and May Semester</t>
+  </si>
+  <si>
+    <t>Sep and Jan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1679,6 +1719,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1712,7 +1783,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1735,11 +1806,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1800,6 +1886,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2120,10 +2227,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A951922-FE62-483E-BD66-3D6271D7989F}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:Q254"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView tabSelected="1" topLeftCell="C15" workbookViewId="0">
+      <selection activeCell="N91" sqref="N91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2132,19 +2240,19 @@
     <col min="3" max="3" width="13.28515625" customWidth="1"/>
     <col min="4" max="4" width="14.140625" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="33.28515625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="28.28515625" style="30" customWidth="1"/>
     <col min="7" max="7" width="14.140625" style="10" customWidth="1"/>
     <col min="8" max="8" width="11.5703125" style="10" customWidth="1"/>
     <col min="9" max="9" width="13.5703125" style="10" customWidth="1"/>
     <col min="10" max="10" width="16" style="10" customWidth="1"/>
     <col min="11" max="11" width="25.7109375" style="10" customWidth="1"/>
     <col min="12" max="12" width="29.85546875" customWidth="1"/>
-    <col min="13" max="13" width="21.28515625" customWidth="1"/>
+    <col min="13" max="13" width="24" customWidth="1"/>
     <col min="14" max="14" width="14.42578125" style="14" customWidth="1"/>
     <col min="15" max="15" width="16" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30">
+    <row r="1" spans="1:17" ht="30.75">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2209,7 +2317,7 @@
       <c r="E2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="29" t="s">
         <v>20</v>
       </c>
       <c r="G2" s="8" t="s">
@@ -2258,7 +2366,7 @@
       <c r="E3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="29" t="s">
         <v>20</v>
       </c>
       <c r="G3" s="8" t="s">
@@ -2307,7 +2415,7 @@
       <c r="E4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="29" t="s">
         <v>20</v>
       </c>
       <c r="G4" s="8" t="s">
@@ -2356,7 +2464,7 @@
       <c r="E5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="29" t="s">
         <v>20</v>
       </c>
       <c r="G5" s="8" t="s">
@@ -2405,7 +2513,7 @@
       <c r="E6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="29" t="s">
         <v>20</v>
       </c>
       <c r="G6" s="8" t="s">
@@ -2454,7 +2562,7 @@
       <c r="E7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="29" t="s">
         <v>20</v>
       </c>
       <c r="G7" s="8" t="s">
@@ -2503,7 +2611,7 @@
       <c r="E8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="29" t="s">
         <v>20</v>
       </c>
       <c r="G8" s="8" t="s">
@@ -2552,7 +2660,7 @@
       <c r="E9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="29" t="s">
         <v>20</v>
       </c>
       <c r="G9" s="8" t="s">
@@ -2601,7 +2709,7 @@
       <c r="E10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="29" t="s">
         <v>20</v>
       </c>
       <c r="G10" s="8" t="s">
@@ -2650,7 +2758,7 @@
       <c r="E11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="29" t="s">
         <v>20</v>
       </c>
       <c r="G11" s="8" t="s">
@@ -2699,7 +2807,7 @@
       <c r="E12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="29" t="s">
         <v>20</v>
       </c>
       <c r="G12" s="8" t="s">
@@ -2748,7 +2856,7 @@
       <c r="E13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="29" t="s">
         <v>20</v>
       </c>
       <c r="G13" s="8" t="s">
@@ -2797,7 +2905,7 @@
       <c r="E14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="29" t="s">
         <v>20</v>
       </c>
       <c r="G14" s="8" t="s">
@@ -2840,7 +2948,7 @@
       <c r="E15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="29" t="s">
         <v>20</v>
       </c>
       <c r="G15" s="8" t="s">
@@ -2867,7 +2975,7 @@
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" hidden="1">
       <c r="A16" s="22" t="s">
         <v>66</v>
       </c>
@@ -2910,7 +3018,7 @@
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" hidden="1">
       <c r="A17" s="22" t="s">
         <v>70</v>
       </c>
@@ -2953,7 +3061,7 @@
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" hidden="1">
       <c r="A18" s="22" t="s">
         <v>72</v>
       </c>
@@ -2996,7 +3104,7 @@
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" hidden="1">
       <c r="A19" s="22" t="s">
         <v>76</v>
       </c>
@@ -3039,7 +3147,7 @@
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" hidden="1">
       <c r="A20" s="22" t="s">
         <v>79</v>
       </c>
@@ -3082,7 +3190,7 @@
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" hidden="1">
       <c r="A21" s="22" t="s">
         <v>84</v>
       </c>
@@ -3125,7 +3233,7 @@
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" hidden="1">
       <c r="A22" s="22" t="s">
         <v>84</v>
       </c>
@@ -3168,7 +3276,7 @@
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" hidden="1">
       <c r="A23" s="22" t="s">
         <v>87</v>
       </c>
@@ -3211,7 +3319,7 @@
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" hidden="1">
       <c r="A24" s="22" t="s">
         <v>90</v>
       </c>
@@ -3254,7 +3362,7 @@
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" hidden="1">
       <c r="A25" s="22" t="s">
         <v>93</v>
       </c>
@@ -3297,7 +3405,7 @@
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" hidden="1">
       <c r="A26" s="22" t="s">
         <v>96</v>
       </c>
@@ -3340,7 +3448,7 @@
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" hidden="1">
       <c r="A27" s="22" t="s">
         <v>99</v>
       </c>
@@ -3383,7 +3491,7 @@
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" hidden="1">
       <c r="A28" s="5" t="s">
         <v>102</v>
       </c>
@@ -3426,7 +3534,7 @@
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" hidden="1">
       <c r="A29" s="5" t="s">
         <v>108</v>
       </c>
@@ -3469,7 +3577,7 @@
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" hidden="1">
       <c r="A30" s="5" t="s">
         <v>111</v>
       </c>
@@ -3512,7 +3620,7 @@
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" hidden="1">
       <c r="A31" s="5" t="s">
         <v>114</v>
       </c>
@@ -3555,7 +3663,7 @@
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" hidden="1">
       <c r="A32" s="5" t="s">
         <v>117</v>
       </c>
@@ -3598,7 +3706,7 @@
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:17" hidden="1">
       <c r="A33" s="5" t="s">
         <v>120</v>
       </c>
@@ -3641,7 +3749,7 @@
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:17" hidden="1">
       <c r="A34" s="18" t="s">
         <v>123</v>
       </c>
@@ -3684,7 +3792,7 @@
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:17" hidden="1">
       <c r="A35" s="18" t="s">
         <v>126</v>
       </c>
@@ -3727,7 +3835,7 @@
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:17" hidden="1">
       <c r="A36" s="18" t="s">
         <v>129</v>
       </c>
@@ -3770,7 +3878,7 @@
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:17" hidden="1">
       <c r="A37" s="18" t="s">
         <v>129</v>
       </c>
@@ -3813,7 +3921,7 @@
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:17" hidden="1">
       <c r="A38" s="18" t="s">
         <v>132</v>
       </c>
@@ -3856,7 +3964,7 @@
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" hidden="1">
       <c r="A39" s="18" t="s">
         <v>132</v>
       </c>
@@ -3899,7 +4007,7 @@
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:17" hidden="1">
       <c r="A40" s="18" t="s">
         <v>136</v>
       </c>
@@ -3942,7 +4050,7 @@
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:17" hidden="1">
       <c r="A41" s="18" t="s">
         <v>136</v>
       </c>
@@ -3985,7 +4093,7 @@
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:17" hidden="1">
       <c r="A42" s="18" t="s">
         <v>136</v>
       </c>
@@ -4028,7 +4136,7 @@
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:17" hidden="1">
       <c r="A43" s="18" t="s">
         <v>136</v>
       </c>
@@ -4071,7 +4179,7 @@
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:17" hidden="1">
       <c r="A44" s="18" t="s">
         <v>136</v>
       </c>
@@ -4114,7 +4222,7 @@
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:17" hidden="1">
       <c r="A45" s="18" t="s">
         <v>136</v>
       </c>
@@ -4157,7 +4265,7 @@
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:17" hidden="1">
       <c r="A46" s="18" t="s">
         <v>142</v>
       </c>
@@ -4200,7 +4308,7 @@
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:17" hidden="1">
       <c r="A47" s="18" t="s">
         <v>142</v>
       </c>
@@ -4243,7 +4351,7 @@
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:17" hidden="1">
       <c r="A48" s="5" t="s">
         <v>145</v>
       </c>
@@ -4286,7 +4394,7 @@
       <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="1:17" hidden="1">
       <c r="A49" s="5" t="s">
         <v>145</v>
       </c>
@@ -4329,7 +4437,7 @@
       <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:17" hidden="1">
       <c r="A50" s="5" t="s">
         <v>150</v>
       </c>
@@ -4372,7 +4480,7 @@
       <c r="P50" s="2"/>
       <c r="Q50" s="2"/>
     </row>
-    <row r="51" spans="1:17">
+    <row r="51" spans="1:17" hidden="1">
       <c r="A51" s="5" t="s">
         <v>154</v>
       </c>
@@ -4415,7 +4523,7 @@
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
     </row>
-    <row r="52" spans="1:17">
+    <row r="52" spans="1:17" hidden="1">
       <c r="A52" s="5" t="s">
         <v>157</v>
       </c>
@@ -4458,7 +4566,7 @@
       <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
     </row>
-    <row r="53" spans="1:17">
+    <row r="53" spans="1:17" hidden="1">
       <c r="A53" s="5" t="s">
         <v>157</v>
       </c>
@@ -4501,7 +4609,7 @@
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
     </row>
-    <row r="54" spans="1:17">
+    <row r="54" spans="1:17" hidden="1">
       <c r="A54" s="5" t="s">
         <v>157</v>
       </c>
@@ -4544,7 +4652,7 @@
       <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
     </row>
-    <row r="55" spans="1:17">
+    <row r="55" spans="1:17" hidden="1">
       <c r="A55" s="5" t="s">
         <v>160</v>
       </c>
@@ -4587,7 +4695,7 @@
       <c r="P55" s="2"/>
       <c r="Q55" s="2"/>
     </row>
-    <row r="56" spans="1:17">
+    <row r="56" spans="1:17" hidden="1">
       <c r="A56" s="5" t="s">
         <v>160</v>
       </c>
@@ -4630,7 +4738,7 @@
       <c r="P56" s="2"/>
       <c r="Q56" s="2"/>
     </row>
-    <row r="57" spans="1:17">
+    <row r="57" spans="1:17" hidden="1">
       <c r="A57" s="5" t="s">
         <v>163</v>
       </c>
@@ -4689,7 +4797,7 @@
       <c r="E58" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F58" s="8" t="s">
+      <c r="F58" s="29" t="s">
         <v>166</v>
       </c>
       <c r="G58" s="8" t="s">
@@ -4772,7 +4880,7 @@
       <c r="E60" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F60" s="8" t="s">
+      <c r="F60" s="29" t="s">
         <v>175</v>
       </c>
       <c r="G60" s="8" t="s">
@@ -4799,7 +4907,7 @@
       <c r="P60" s="2"/>
       <c r="Q60" s="2"/>
     </row>
-    <row r="61" spans="1:17">
+    <row r="61" spans="1:17" hidden="1">
       <c r="A61" s="5" t="s">
         <v>177</v>
       </c>
@@ -4842,7 +4950,7 @@
       <c r="P61" s="2"/>
       <c r="Q61" s="2"/>
     </row>
-    <row r="62" spans="1:17">
+    <row r="62" spans="1:17" hidden="1">
       <c r="A62" s="26" t="s">
         <v>177</v>
       </c>
@@ -4883,7 +4991,7 @@
       <c r="P62" s="2"/>
       <c r="Q62" s="2"/>
     </row>
-    <row r="63" spans="1:17">
+    <row r="63" spans="1:17" hidden="1">
       <c r="A63" s="26" t="s">
         <v>177</v>
       </c>
@@ -4924,7 +5032,7 @@
       <c r="P63" s="2"/>
       <c r="Q63" s="2"/>
     </row>
-    <row r="64" spans="1:17">
+    <row r="64" spans="1:17" hidden="1">
       <c r="A64" s="18" t="s">
         <v>181</v>
       </c>
@@ -4967,7 +5075,7 @@
       <c r="P64" s="2"/>
       <c r="Q64" s="2"/>
     </row>
-    <row r="65" spans="1:17">
+    <row r="65" spans="1:17" hidden="1">
       <c r="A65" s="5" t="s">
         <v>185</v>
       </c>
@@ -5010,7 +5118,7 @@
       <c r="P65" s="2"/>
       <c r="Q65" s="2"/>
     </row>
-    <row r="66" spans="1:17">
+    <row r="66" spans="1:17" hidden="1">
       <c r="A66" s="5" t="s">
         <v>185</v>
       </c>
@@ -5053,7 +5161,7 @@
       <c r="P66" s="2"/>
       <c r="Q66" s="2"/>
     </row>
-    <row r="67" spans="1:17">
+    <row r="67" spans="1:17" hidden="1">
       <c r="A67" s="5" t="s">
         <v>185</v>
       </c>
@@ -5097,40 +5205,40 @@
       <c r="Q67" s="2"/>
     </row>
     <row r="68" spans="1:17">
-      <c r="A68" s="5" t="s">
+      <c r="A68" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="C68" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="D68" s="6" t="s">
+      <c r="D68" s="28" t="s">
         <v>194</v>
       </c>
-      <c r="E68" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F68" s="8" t="s">
+      <c r="E68" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F68" s="31" t="s">
         <v>195</v>
       </c>
-      <c r="G68" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H68" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I68" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J68" s="8">
-        <v>2022</v>
-      </c>
-      <c r="K68" s="8" t="s">
+      <c r="G68" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H68" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I68" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="J68" s="16">
+        <v>2022</v>
+      </c>
+      <c r="K68" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="L68" s="5" t="s">
+      <c r="L68" s="15" t="s">
         <v>196</v>
       </c>
       <c r="M68" s="5"/>
@@ -5140,40 +5248,40 @@
       <c r="Q68" s="2"/>
     </row>
     <row r="69" spans="1:17">
-      <c r="A69" s="5" t="s">
+      <c r="A69" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="C69" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="D69" s="6" t="s">
+      <c r="D69" s="28" t="s">
         <v>194</v>
       </c>
-      <c r="E69" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F69" s="8" t="s">
+      <c r="E69" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F69" s="31" t="s">
         <v>195</v>
       </c>
-      <c r="G69" s="8" t="s">
+      <c r="G69" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="H69" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I69" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J69" s="8">
-        <v>2022</v>
-      </c>
-      <c r="K69" s="8" t="s">
+      <c r="H69" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I69" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="J69" s="16">
+        <v>2022</v>
+      </c>
+      <c r="K69" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="L69" s="5" t="s">
+      <c r="L69" s="15" t="s">
         <v>196</v>
       </c>
       <c r="M69" s="5"/>
@@ -5198,7 +5306,7 @@
       <c r="E70" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F70" s="8" t="s">
+      <c r="F70" s="29" t="s">
         <v>199</v>
       </c>
       <c r="G70" s="8" t="s">
@@ -5225,7 +5333,7 @@
       <c r="P70" s="2"/>
       <c r="Q70" s="2"/>
     </row>
-    <row r="71" spans="1:17">
+    <row r="71" spans="1:17" hidden="1">
       <c r="A71" s="5" t="s">
         <v>200</v>
       </c>
@@ -5268,7 +5376,7 @@
       <c r="P71" s="2"/>
       <c r="Q71" s="2"/>
     </row>
-    <row r="72" spans="1:17">
+    <row r="72" spans="1:17" hidden="1">
       <c r="A72" s="5" t="s">
         <v>203</v>
       </c>
@@ -5312,40 +5420,40 @@
       <c r="Q72" s="2"/>
     </row>
     <row r="73" spans="1:17">
-      <c r="A73" s="5" t="s">
+      <c r="A73" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B73" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="C73" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="D73" s="6" t="s">
+      <c r="D73" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="E73" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F73" s="8" t="s">
+      <c r="E73" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F73" s="31" t="s">
         <v>206</v>
       </c>
-      <c r="G73" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H73" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I73" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J73" s="8">
+      <c r="G73" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H73" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I73" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="J73" s="16">
         <v>2021</v>
       </c>
-      <c r="K73" s="8" t="s">
+      <c r="K73" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="L73" s="5" t="s">
+      <c r="L73" s="15" t="s">
         <v>196</v>
       </c>
       <c r="M73" s="5"/>
@@ -5355,40 +5463,40 @@
       <c r="Q73" s="2"/>
     </row>
     <row r="74" spans="1:17">
-      <c r="A74" s="5" t="s">
+      <c r="A74" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="C74" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="D74" s="6" t="s">
+      <c r="D74" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="E74" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F74" s="8" t="s">
+      <c r="E74" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F74" s="31" t="s">
         <v>206</v>
       </c>
-      <c r="G74" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H74" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I74" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J74" s="8">
-        <v>2022</v>
-      </c>
-      <c r="K74" s="8" t="s">
+      <c r="G74" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H74" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I74" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="J74" s="16">
+        <v>2022</v>
+      </c>
+      <c r="K74" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="L74" s="5" t="s">
+      <c r="L74" s="15" t="s">
         <v>196</v>
       </c>
       <c r="M74" s="5"/>
@@ -5398,40 +5506,40 @@
       <c r="Q74" s="2"/>
     </row>
     <row r="75" spans="1:17">
-      <c r="A75" s="5" t="s">
+      <c r="A75" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="C75" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="D75" s="5" t="s">
+      <c r="D75" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="E75" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F75" s="8" t="s">
+      <c r="E75" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F75" s="31" t="s">
         <v>206</v>
       </c>
-      <c r="G75" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H75" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I75" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J75" s="8">
-        <v>2022</v>
-      </c>
-      <c r="K75" s="8" t="s">
+      <c r="G75" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H75" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I75" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="J75" s="16">
+        <v>2022</v>
+      </c>
+      <c r="K75" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="L75" s="5" t="s">
+      <c r="L75" s="15" t="s">
         <v>196</v>
       </c>
       <c r="M75" s="5"/>
@@ -5456,7 +5564,7 @@
       <c r="E76" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F76" s="8" t="s">
+      <c r="F76" s="29" t="s">
         <v>213</v>
       </c>
       <c r="G76" s="8" t="s">
@@ -5483,7 +5591,7 @@
       <c r="P76" s="2"/>
       <c r="Q76" s="2"/>
     </row>
-    <row r="77" spans="1:17">
+    <row r="77" spans="1:17" hidden="1">
       <c r="A77" s="5" t="s">
         <v>214</v>
       </c>
@@ -5526,7 +5634,7 @@
       <c r="P77" s="2"/>
       <c r="Q77" s="2"/>
     </row>
-    <row r="78" spans="1:17">
+    <row r="78" spans="1:17" hidden="1">
       <c r="A78" s="5" t="s">
         <v>214</v>
       </c>
@@ -5585,7 +5693,7 @@
       <c r="E79" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F79" s="8" t="s">
+      <c r="F79" s="29" t="s">
         <v>156</v>
       </c>
       <c r="G79" s="8" t="s">
@@ -5628,7 +5736,7 @@
       <c r="E80" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F80" s="8" t="s">
+      <c r="F80" s="29" t="s">
         <v>156</v>
       </c>
       <c r="G80" s="8" t="s">
@@ -5671,7 +5779,7 @@
       <c r="E81" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F81" s="8" t="s">
+      <c r="F81" s="29" t="s">
         <v>156</v>
       </c>
       <c r="G81" s="8" t="s">
@@ -5714,7 +5822,7 @@
       <c r="E82" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F82" s="8" t="s">
+      <c r="F82" s="29" t="s">
         <v>147</v>
       </c>
       <c r="G82" s="8" t="s">
@@ -5757,7 +5865,7 @@
       <c r="E83" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F83" s="8" t="s">
+      <c r="F83" s="29" t="s">
         <v>156</v>
       </c>
       <c r="G83" s="8" t="s">
@@ -5800,7 +5908,7 @@
       <c r="E84" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F84" s="8" t="s">
+      <c r="F84" s="29" t="s">
         <v>156</v>
       </c>
       <c r="G84" s="8" t="s">
@@ -5843,7 +5951,7 @@
       <c r="E85" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F85" s="8"/>
+      <c r="F85" s="29"/>
       <c r="G85" s="8" t="s">
         <v>21</v>
       </c>
@@ -5890,7 +5998,7 @@
       <c r="E86" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F86" s="8" t="s">
+      <c r="F86" s="29" t="s">
         <v>244</v>
       </c>
       <c r="G86" s="8" t="s">
@@ -5939,7 +6047,7 @@
       <c r="E87" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F87" s="8"/>
+      <c r="F87" s="29"/>
       <c r="G87" s="8" t="s">
         <v>21</v>
       </c>
@@ -5970,7 +6078,7 @@
       <c r="P87" s="2"/>
       <c r="Q87" s="2"/>
     </row>
-    <row r="88" spans="1:17">
+    <row r="88" spans="1:17" ht="30.75">
       <c r="A88" s="5" t="s">
         <v>249</v>
       </c>
@@ -5986,7 +6094,7 @@
       <c r="E88" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F88" s="8" t="s">
+      <c r="F88" s="29" t="s">
         <v>252</v>
       </c>
       <c r="G88" s="8" t="s">
@@ -6035,7 +6143,7 @@
       <c r="E89" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F89" s="8" t="s">
+      <c r="F89" s="29" t="s">
         <v>156</v>
       </c>
       <c r="G89" s="8" t="s">
@@ -6078,7 +6186,7 @@
       <c r="E90" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F90" s="8" t="s">
+      <c r="F90" s="29" t="s">
         <v>156</v>
       </c>
       <c r="G90" s="8" t="s">
@@ -6121,7 +6229,7 @@
       <c r="E91" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F91" s="8" t="s">
+      <c r="F91" s="29" t="s">
         <v>262</v>
       </c>
       <c r="G91" s="8" t="s">
@@ -6164,7 +6272,7 @@
       <c r="E92" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F92" s="8" t="s">
+      <c r="F92" s="29" t="s">
         <v>262</v>
       </c>
       <c r="G92" s="8" t="s">
@@ -6207,7 +6315,7 @@
       <c r="E93" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F93" s="8" t="s">
+      <c r="F93" s="29" t="s">
         <v>262</v>
       </c>
       <c r="G93" s="8" t="s">
@@ -6250,7 +6358,7 @@
       <c r="E94" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F94" s="8"/>
+      <c r="F94" s="29"/>
       <c r="G94" s="8" t="s">
         <v>21</v>
       </c>
@@ -6291,7 +6399,7 @@
       <c r="E95" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F95" s="8" t="s">
+      <c r="F95" s="29" t="s">
         <v>275</v>
       </c>
       <c r="G95" s="8" t="s">
@@ -6334,7 +6442,7 @@
       <c r="E96" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F96" s="8"/>
+      <c r="F96" s="29"/>
       <c r="G96" s="8" t="s">
         <v>21</v>
       </c>
@@ -6375,7 +6483,7 @@
       <c r="E97" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F97" s="16"/>
+      <c r="F97" s="31"/>
       <c r="G97" s="16" t="s">
         <v>83</v>
       </c>
@@ -6392,9 +6500,11 @@
         <v>107</v>
       </c>
       <c r="L97" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="M97" s="5"/>
+        <v>34</v>
+      </c>
+      <c r="M97" s="5" t="s">
+        <v>282</v>
+      </c>
       <c r="N97" s="12"/>
       <c r="O97" s="12"/>
       <c r="P97" s="2"/>
@@ -6402,21 +6512,21 @@
     </row>
     <row r="98" spans="1:17">
       <c r="A98" s="5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>220</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E98" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F98" s="8" t="s">
+      <c r="F98" s="29" t="s">
         <v>199</v>
       </c>
       <c r="G98" s="8" t="s">
@@ -6445,21 +6555,21 @@
     </row>
     <row r="99" spans="1:17">
       <c r="A99" s="5" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C99" s="5" t="s">
         <v>220</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E99" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F99" s="8" t="s">
+      <c r="F99" s="29" t="s">
         <v>147</v>
       </c>
       <c r="G99" s="8" t="s">
@@ -6475,7 +6585,7 @@
         <v>2022</v>
       </c>
       <c r="K99" s="8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L99" s="5" t="s">
         <v>170</v>
@@ -6488,21 +6598,21 @@
     </row>
     <row r="100" spans="1:17">
       <c r="A100" s="5" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C100" s="5" t="s">
         <v>220</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E100" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F100" s="8" t="s">
+      <c r="F100" s="29" t="s">
         <v>199</v>
       </c>
       <c r="G100" s="8" t="s">
@@ -6529,9 +6639,9 @@
       <c r="P100" s="2"/>
       <c r="Q100" s="2"/>
     </row>
-    <row r="101" spans="1:17">
+    <row r="101" spans="1:17" hidden="1">
       <c r="A101" s="22" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B101" s="22" t="s">
         <v>43</v>
@@ -6540,7 +6650,7 @@
         <v>17</v>
       </c>
       <c r="D101" s="25" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E101" s="22" t="s">
         <v>19</v>
@@ -6572,18 +6682,18 @@
       <c r="P101" s="2"/>
       <c r="Q101" s="2"/>
     </row>
-    <row r="102" spans="1:17">
+    <row r="102" spans="1:17" hidden="1">
       <c r="A102" s="22" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B102" s="22" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C102" s="22" t="s">
         <v>17</v>
       </c>
       <c r="D102" s="25" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E102" s="22" t="s">
         <v>19</v>
@@ -6613,18 +6723,18 @@
       <c r="P102" s="2"/>
       <c r="Q102" s="2"/>
     </row>
-    <row r="103" spans="1:17">
+    <row r="103" spans="1:17" hidden="1">
       <c r="A103" s="18" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B103" s="18" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C103" s="18" t="s">
         <v>17</v>
       </c>
       <c r="D103" s="21" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E103" s="18" t="s">
         <v>19</v>
@@ -6658,21 +6768,21 @@
     </row>
     <row r="104" spans="1:17">
       <c r="A104" s="5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C104" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E104" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F104" s="8" t="s">
+      <c r="F104" s="29" t="s">
         <v>156</v>
       </c>
       <c r="G104" s="8" t="s">
@@ -6701,21 +6811,21 @@
     </row>
     <row r="105" spans="1:17">
       <c r="A105" s="5" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C105" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E105" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F105" s="8"/>
+      <c r="F105" s="29"/>
       <c r="G105" s="8" t="s">
         <v>83</v>
       </c>
@@ -6735,7 +6845,7 @@
         <v>25</v>
       </c>
       <c r="M105" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N105" s="12" t="s">
         <v>23</v>
@@ -6748,21 +6858,21 @@
     </row>
     <row r="106" spans="1:17">
       <c r="A106" s="5" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C106" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E106" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F106" s="8" t="s">
+      <c r="F106" s="29" t="s">
         <v>156</v>
       </c>
       <c r="G106" s="8" t="s">
@@ -6791,21 +6901,21 @@
     </row>
     <row r="107" spans="1:17">
       <c r="A107" s="5" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C107" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E107" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F107" s="8" t="s">
+      <c r="F107" s="29" t="s">
         <v>156</v>
       </c>
       <c r="G107" s="8" t="s">
@@ -6834,22 +6944,22 @@
     </row>
     <row r="108" spans="1:17">
       <c r="A108" s="5" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C108" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E108" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F108" s="8" t="s">
-        <v>313</v>
+      <c r="F108" s="29" t="s">
+        <v>314</v>
       </c>
       <c r="G108" s="8" t="s">
         <v>83</v>
@@ -6877,7 +6987,7 @@
     </row>
     <row r="109" spans="1:17">
       <c r="A109" s="5" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B109" s="5" t="s">
         <v>43</v>
@@ -6886,12 +6996,12 @@
         <v>17</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E109" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F109" s="8" t="s">
+      <c r="F109" s="29" t="s">
         <v>156</v>
       </c>
       <c r="G109" s="8" t="s">
@@ -6913,7 +7023,7 @@
         <v>25</v>
       </c>
       <c r="M109" s="5" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N109" s="12" t="s">
         <v>23</v>
@@ -6926,21 +7036,21 @@
     </row>
     <row r="110" spans="1:17">
       <c r="A110" s="5" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C110" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E110" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F110" s="8" t="s">
+      <c r="F110" s="29" t="s">
         <v>147</v>
       </c>
       <c r="G110" s="8" t="s">
@@ -6969,21 +7079,21 @@
     </row>
     <row r="111" spans="1:17">
       <c r="A111" s="5" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C111" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E111" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F111" s="8" t="s">
+      <c r="F111" s="29" t="s">
         <v>147</v>
       </c>
       <c r="G111" s="8" t="s">
@@ -7018,7 +7128,7 @@
     </row>
     <row r="112" spans="1:17">
       <c r="A112" s="5" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B112" s="5" t="s">
         <v>46</v>
@@ -7027,12 +7137,12 @@
         <v>17</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E112" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F112" s="8"/>
+      <c r="F112" s="29"/>
       <c r="G112" s="8" t="s">
         <v>21</v>
       </c>
@@ -7059,7 +7169,7 @@
     </row>
     <row r="113" spans="1:17">
       <c r="A113" s="5" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B113" s="5" t="s">
         <v>46</v>
@@ -7068,13 +7178,13 @@
         <v>17</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E113" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F113" s="8" t="s">
-        <v>326</v>
+      <c r="F113" s="29" t="s">
+        <v>327</v>
       </c>
       <c r="G113" s="8" t="s">
         <v>83</v>
@@ -7102,21 +7212,21 @@
     </row>
     <row r="114" spans="1:17">
       <c r="A114" s="5" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C114" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E114" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F114" s="8"/>
+      <c r="F114" s="29"/>
       <c r="G114" s="8" t="s">
         <v>21</v>
       </c>
@@ -7143,22 +7253,22 @@
     </row>
     <row r="115" spans="1:17">
       <c r="A115" s="5" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C115" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E115" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F115" s="8" t="s">
-        <v>333</v>
+      <c r="F115" s="29" t="s">
+        <v>334</v>
       </c>
       <c r="G115" s="8" t="s">
         <v>21</v>
@@ -7192,22 +7302,22 @@
     </row>
     <row r="116" spans="1:17">
       <c r="A116" s="5" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C116" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E116" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F116" s="8" t="s">
-        <v>333</v>
+      <c r="F116" s="29" t="s">
+        <v>334</v>
       </c>
       <c r="G116" s="8" t="s">
         <v>21</v>
@@ -7241,21 +7351,21 @@
     </row>
     <row r="117" spans="1:17">
       <c r="A117" s="5" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C117" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E117" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F117" s="8"/>
+      <c r="F117" s="29"/>
       <c r="G117" s="8" t="s">
         <v>83</v>
       </c>
@@ -7282,21 +7392,21 @@
     </row>
     <row r="118" spans="1:17">
       <c r="A118" s="5" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C118" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E118" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F118" s="8" t="s">
+      <c r="F118" s="29" t="s">
         <v>199</v>
       </c>
       <c r="G118" s="8" t="s">
@@ -7331,21 +7441,21 @@
     </row>
     <row r="119" spans="1:17">
       <c r="A119" s="5" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C119" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E119" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F119" s="8" t="s">
+      <c r="F119" s="29" t="s">
         <v>199</v>
       </c>
       <c r="G119" s="8" t="s">
@@ -7378,24 +7488,24 @@
       <c r="P119" s="2"/>
       <c r="Q119" s="2"/>
     </row>
-    <row r="120" spans="1:17">
+    <row r="120" spans="1:17" hidden="1">
       <c r="A120" s="5" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C120" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E120" s="5" t="s">
         <v>19</v>
       </c>
       <c r="F120" s="8" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G120" s="8" t="s">
         <v>83</v>
@@ -7423,23 +7533,23 @@
     </row>
     <row r="121" spans="1:17">
       <c r="A121" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="E121" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F121" s="29" t="s">
         <v>348</v>
       </c>
-      <c r="B121" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="C121" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="D121" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="E121" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F121" s="8" t="s">
-        <v>347</v>
-      </c>
       <c r="G121" s="8" t="s">
         <v>21</v>
       </c>
@@ -7453,7 +7563,7 @@
         <v>2022</v>
       </c>
       <c r="K121" s="8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L121" s="5" t="s">
         <v>176</v>
@@ -7466,23 +7576,23 @@
     </row>
     <row r="122" spans="1:17">
       <c r="A122" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F122" s="29" t="s">
         <v>348</v>
       </c>
-      <c r="B122" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="C122" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="D122" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="E122" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F122" s="8" t="s">
-        <v>347</v>
-      </c>
       <c r="G122" s="8" t="s">
         <v>21</v>
       </c>
@@ -7496,7 +7606,7 @@
         <v>2022</v>
       </c>
       <c r="K122" s="8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L122" s="5" t="s">
         <v>176</v>
@@ -7509,21 +7619,21 @@
     </row>
     <row r="123" spans="1:17">
       <c r="A123" s="5" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E123" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F123" s="8"/>
+      <c r="F123" s="29"/>
       <c r="G123" s="8" t="s">
         <v>21</v>
       </c>
@@ -7550,21 +7660,21 @@
     </row>
     <row r="124" spans="1:17">
       <c r="A124" s="5" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E124" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F124" s="8"/>
+      <c r="F124" s="29"/>
       <c r="G124" s="8" t="s">
         <v>21</v>
       </c>
@@ -7591,21 +7701,21 @@
     </row>
     <row r="125" spans="1:17">
       <c r="A125" s="5" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B125" s="5" t="s">
         <v>178</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E125" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F125" s="8"/>
+      <c r="F125" s="29"/>
       <c r="G125" s="8" t="s">
         <v>21</v>
       </c>
@@ -7622,7 +7732,7 @@
         <v>148</v>
       </c>
       <c r="L125" s="5" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M125" s="5"/>
       <c r="N125" s="12"/>
@@ -7632,21 +7742,21 @@
     </row>
     <row r="126" spans="1:17">
       <c r="A126" s="5" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B126" s="5" t="s">
         <v>178</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E126" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F126" s="8"/>
+      <c r="F126" s="29"/>
       <c r="G126" s="8" t="s">
         <v>21</v>
       </c>
@@ -7663,7 +7773,7 @@
         <v>148</v>
       </c>
       <c r="L126" s="5" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M126" s="5"/>
       <c r="N126" s="12"/>
@@ -7673,21 +7783,21 @@
     </row>
     <row r="127" spans="1:17">
       <c r="A127" s="5" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E127" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F127" s="8"/>
+      <c r="F127" s="29"/>
       <c r="G127" s="8" t="s">
         <v>21</v>
       </c>
@@ -7704,7 +7814,7 @@
         <v>148</v>
       </c>
       <c r="L127" s="5" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M127" s="5"/>
       <c r="N127" s="12"/>
@@ -7714,21 +7824,21 @@
     </row>
     <row r="128" spans="1:17">
       <c r="A128" s="5" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E128" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F128" s="8"/>
+      <c r="F128" s="29"/>
       <c r="G128" s="8" t="s">
         <v>21</v>
       </c>
@@ -7745,7 +7855,7 @@
         <v>148</v>
       </c>
       <c r="L128" s="5" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M128" s="5"/>
       <c r="N128" s="12"/>
@@ -7755,21 +7865,21 @@
     </row>
     <row r="129" spans="1:17">
       <c r="A129" s="5" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E129" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F129" s="8"/>
+      <c r="F129" s="29"/>
       <c r="G129" s="8" t="s">
         <v>21</v>
       </c>
@@ -7796,21 +7906,21 @@
     </row>
     <row r="130" spans="1:17">
       <c r="A130" s="5" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E130" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F130" s="8"/>
+      <c r="F130" s="29"/>
       <c r="G130" s="8" t="s">
         <v>21</v>
       </c>
@@ -7837,21 +7947,21 @@
     </row>
     <row r="131" spans="1:17">
       <c r="A131" s="5" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E131" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F131" s="8"/>
+      <c r="F131" s="29"/>
       <c r="G131" s="8" t="s">
         <v>21</v>
       </c>
@@ -7878,21 +7988,21 @@
     </row>
     <row r="132" spans="1:17">
       <c r="A132" s="5" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E132" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F132" s="8"/>
+      <c r="F132" s="29"/>
       <c r="G132" s="8" t="s">
         <v>21</v>
       </c>
@@ -7919,21 +8029,21 @@
     </row>
     <row r="133" spans="1:17">
       <c r="A133" s="5" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E133" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F133" s="8"/>
+      <c r="F133" s="29"/>
       <c r="G133" s="8" t="s">
         <v>21</v>
       </c>
@@ -7960,21 +8070,21 @@
     </row>
     <row r="134" spans="1:17">
       <c r="A134" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B134" s="5" t="s">
         <v>54</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E134" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F134" s="8"/>
+      <c r="F134" s="29"/>
       <c r="G134" s="8" t="s">
         <v>21</v>
       </c>
@@ -8001,21 +8111,21 @@
     </row>
     <row r="135" spans="1:17">
       <c r="A135" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E135" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F135" s="8"/>
+      <c r="F135" s="29"/>
       <c r="G135" s="8" t="s">
         <v>21</v>
       </c>
@@ -8040,18 +8150,18 @@
       <c r="P135" s="2"/>
       <c r="Q135" s="2"/>
     </row>
-    <row r="136" spans="1:17">
+    <row r="136" spans="1:17" hidden="1">
       <c r="A136" s="18" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B136" s="18" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C136" s="18" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D136" s="21" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E136" s="18" t="s">
         <v>19</v>
@@ -8083,18 +8193,18 @@
       <c r="P136" s="2"/>
       <c r="Q136" s="2"/>
     </row>
-    <row r="137" spans="1:17">
+    <row r="137" spans="1:17" hidden="1">
       <c r="A137" s="18" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B137" s="18" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C137" s="18" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D137" s="21" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E137" s="18" t="s">
         <v>19</v>
@@ -8128,22 +8238,22 @@
     </row>
     <row r="138" spans="1:17">
       <c r="A138" s="5" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E138" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F138" s="8" t="s">
-        <v>387</v>
+      <c r="F138" s="29" t="s">
+        <v>388</v>
       </c>
       <c r="G138" s="8" t="s">
         <v>21</v>
@@ -8161,7 +8271,7 @@
         <v>107</v>
       </c>
       <c r="L138" s="5" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M138" s="5"/>
       <c r="N138" s="12"/>
@@ -8171,22 +8281,22 @@
     </row>
     <row r="139" spans="1:17">
       <c r="A139" s="5" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B139" s="5" t="s">
         <v>264</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E139" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F139" s="8" t="s">
-        <v>387</v>
+      <c r="F139" s="29" t="s">
+        <v>388</v>
       </c>
       <c r="G139" s="8" t="s">
         <v>21</v>
@@ -8204,7 +8314,7 @@
         <v>107</v>
       </c>
       <c r="L139" s="5" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M139" s="5"/>
       <c r="N139" s="12"/>
@@ -8214,22 +8324,22 @@
     </row>
     <row r="140" spans="1:17">
       <c r="A140" s="5" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E140" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F140" s="8" t="s">
-        <v>387</v>
+      <c r="F140" s="29" t="s">
+        <v>388</v>
       </c>
       <c r="G140" s="8" t="s">
         <v>21</v>
@@ -8247,7 +8357,7 @@
         <v>107</v>
       </c>
       <c r="L140" s="5" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M140" s="5"/>
       <c r="N140" s="12"/>
@@ -8257,22 +8367,22 @@
     </row>
     <row r="141" spans="1:17">
       <c r="A141" s="5" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E141" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F141" s="8" t="s">
-        <v>387</v>
+      <c r="F141" s="29" t="s">
+        <v>388</v>
       </c>
       <c r="G141" s="8" t="s">
         <v>21</v>
@@ -8300,22 +8410,22 @@
     </row>
     <row r="142" spans="1:17">
       <c r="A142" s="5" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E142" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F142" s="8" t="s">
-        <v>399</v>
+      <c r="F142" s="29" t="s">
+        <v>400</v>
       </c>
       <c r="G142" s="8" t="s">
         <v>21</v>
@@ -8333,7 +8443,7 @@
         <v>153</v>
       </c>
       <c r="L142" s="5" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M142" s="5"/>
       <c r="N142" s="12"/>
@@ -8343,22 +8453,22 @@
     </row>
     <row r="143" spans="1:17">
       <c r="A143" s="5" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D143" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="E143" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F143" s="29" t="s">
         <v>400</v>
-      </c>
-      <c r="E143" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F143" s="8" t="s">
-        <v>399</v>
       </c>
       <c r="G143" s="8" t="s">
         <v>21</v>
@@ -8376,7 +8486,7 @@
         <v>153</v>
       </c>
       <c r="L143" s="5" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M143" s="5"/>
       <c r="N143" s="12"/>
@@ -8386,22 +8496,22 @@
     </row>
     <row r="144" spans="1:17">
       <c r="A144" s="5" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E144" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F144" s="8" t="s">
-        <v>399</v>
+      <c r="F144" s="29" t="s">
+        <v>400</v>
       </c>
       <c r="G144" s="8" t="s">
         <v>21</v>
@@ -8419,7 +8529,7 @@
         <v>153</v>
       </c>
       <c r="L144" s="5" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M144" s="5"/>
       <c r="N144" s="12"/>
@@ -8429,22 +8539,22 @@
     </row>
     <row r="145" spans="1:17">
       <c r="A145" s="5" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E145" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F145" s="8" t="s">
-        <v>399</v>
+      <c r="F145" s="29" t="s">
+        <v>400</v>
       </c>
       <c r="G145" s="8" t="s">
         <v>21</v>
@@ -8462,7 +8572,7 @@
         <v>153</v>
       </c>
       <c r="L145" s="5" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M145" s="5"/>
       <c r="N145" s="12"/>
@@ -8472,22 +8582,22 @@
     </row>
     <row r="146" spans="1:17">
       <c r="A146" s="5" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E146" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F146" s="8" t="s">
-        <v>408</v>
+      <c r="F146" s="29" t="s">
+        <v>409</v>
       </c>
       <c r="G146" s="8" t="s">
         <v>21</v>
@@ -8505,7 +8615,7 @@
         <v>153</v>
       </c>
       <c r="L146" s="5" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M146" s="5"/>
       <c r="N146" s="12"/>
@@ -8515,22 +8625,22 @@
     </row>
     <row r="147" spans="1:17">
       <c r="A147" s="5" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E147" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F147" s="8" t="s">
-        <v>399</v>
+      <c r="F147" s="29" t="s">
+        <v>400</v>
       </c>
       <c r="G147" s="8" t="s">
         <v>21</v>
@@ -8548,7 +8658,7 @@
         <v>153</v>
       </c>
       <c r="L147" s="5" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M147" s="5"/>
       <c r="N147" s="12"/>
@@ -8558,21 +8668,21 @@
     </row>
     <row r="148" spans="1:17">
       <c r="A148" s="5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E148" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F148" s="8"/>
+      <c r="F148" s="29"/>
       <c r="G148" s="8" t="s">
         <v>21</v>
       </c>
@@ -8589,7 +8699,7 @@
         <v>148</v>
       </c>
       <c r="L148" s="5" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M148" s="5"/>
       <c r="N148" s="12"/>
@@ -8599,21 +8709,21 @@
     </row>
     <row r="149" spans="1:17">
       <c r="A149" s="5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E149" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F149" s="8"/>
+      <c r="F149" s="29"/>
       <c r="G149" s="8" t="s">
         <v>21</v>
       </c>
@@ -8630,7 +8740,7 @@
         <v>148</v>
       </c>
       <c r="L149" s="5" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M149" s="5"/>
       <c r="N149" s="12"/>
@@ -8638,18 +8748,18 @@
       <c r="P149" s="2"/>
       <c r="Q149" s="2"/>
     </row>
-    <row r="150" spans="1:17">
+    <row r="150" spans="1:17" hidden="1">
       <c r="A150" s="22" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B150" s="22" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C150" s="22" t="s">
         <v>74</v>
       </c>
       <c r="D150" s="22" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E150" s="22" t="s">
         <v>19</v>
@@ -8681,18 +8791,18 @@
       <c r="P150" s="2"/>
       <c r="Q150" s="2"/>
     </row>
-    <row r="151" spans="1:17">
+    <row r="151" spans="1:17" hidden="1">
       <c r="A151" s="22" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B151" s="22" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C151" s="22" t="s">
         <v>74</v>
       </c>
       <c r="D151" s="25" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E151" s="22" t="s">
         <v>19</v>
@@ -8724,18 +8834,18 @@
       <c r="P151" s="2"/>
       <c r="Q151" s="2"/>
     </row>
-    <row r="152" spans="1:17">
+    <row r="152" spans="1:17" hidden="1">
       <c r="A152" s="22" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B152" s="22" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C152" s="22" t="s">
         <v>74</v>
       </c>
       <c r="D152" s="22" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E152" s="22" t="s">
         <v>19</v>
@@ -8767,9 +8877,9 @@
       <c r="P152" s="2"/>
       <c r="Q152" s="2"/>
     </row>
-    <row r="153" spans="1:17">
+    <row r="153" spans="1:17" hidden="1">
       <c r="A153" s="22" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B153" s="22" t="s">
         <v>57</v>
@@ -8778,7 +8888,7 @@
         <v>17</v>
       </c>
       <c r="D153" s="25" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E153" s="22" t="s">
         <v>19</v>
@@ -8810,9 +8920,9 @@
       <c r="P153" s="2"/>
       <c r="Q153" s="2"/>
     </row>
-    <row r="154" spans="1:17">
+    <row r="154" spans="1:17" hidden="1">
       <c r="A154" s="22" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B154" s="22" t="s">
         <v>57</v>
@@ -8821,7 +8931,7 @@
         <v>17</v>
       </c>
       <c r="D154" s="25" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E154" s="22" t="s">
         <v>19</v>
@@ -8855,22 +8965,22 @@
     </row>
     <row r="155" spans="1:17">
       <c r="A155" s="5" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E155" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F155" s="8" t="s">
-        <v>347</v>
+      <c r="F155" s="29" t="s">
+        <v>348</v>
       </c>
       <c r="G155" s="8" t="s">
         <v>21</v>
@@ -8885,7 +8995,7 @@
         <v>2022</v>
       </c>
       <c r="K155" s="8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L155" s="5" t="s">
         <v>176</v>
@@ -8898,22 +9008,22 @@
     </row>
     <row r="156" spans="1:17">
       <c r="A156" s="5" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E156" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F156" s="8" t="s">
-        <v>347</v>
+      <c r="F156" s="29" t="s">
+        <v>348</v>
       </c>
       <c r="G156" s="8" t="s">
         <v>21</v>
@@ -8928,7 +9038,7 @@
         <v>2021</v>
       </c>
       <c r="K156" s="8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L156" s="5" t="s">
         <v>176</v>
@@ -8941,22 +9051,22 @@
     </row>
     <row r="157" spans="1:17">
       <c r="A157" s="5" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E157" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F157" s="8" t="s">
-        <v>347</v>
+      <c r="F157" s="29" t="s">
+        <v>348</v>
       </c>
       <c r="G157" s="8" t="s">
         <v>21</v>
@@ -8971,7 +9081,7 @@
         <v>2022</v>
       </c>
       <c r="K157" s="8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L157" s="5" t="s">
         <v>176</v>
@@ -8984,22 +9094,22 @@
     </row>
     <row r="158" spans="1:17">
       <c r="A158" s="5" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E158" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F158" s="8" t="s">
-        <v>347</v>
+      <c r="F158" s="29" t="s">
+        <v>348</v>
       </c>
       <c r="G158" s="8" t="s">
         <v>21</v>
@@ -9014,7 +9124,7 @@
         <v>2022</v>
       </c>
       <c r="K158" s="8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L158" s="7" t="s">
         <v>170</v>
@@ -9027,22 +9137,22 @@
     </row>
     <row r="159" spans="1:17">
       <c r="A159" s="5" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E159" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F159" s="8" t="s">
-        <v>347</v>
+      <c r="F159" s="29" t="s">
+        <v>348</v>
       </c>
       <c r="G159" s="8" t="s">
         <v>21</v>
@@ -9057,7 +9167,7 @@
         <v>2022</v>
       </c>
       <c r="K159" s="8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L159" s="7" t="s">
         <v>170</v>
@@ -9068,18 +9178,18 @@
       <c r="P159" s="2"/>
       <c r="Q159" s="2"/>
     </row>
-    <row r="160" spans="1:17">
+    <row r="160" spans="1:17" hidden="1">
       <c r="A160" s="18" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B160" s="18" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C160" s="18" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D160" s="18" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E160" s="18" t="s">
         <v>19</v>
@@ -9111,9 +9221,9 @@
       <c r="P160" s="2"/>
       <c r="Q160" s="2"/>
     </row>
-    <row r="161" spans="1:17">
+    <row r="161" spans="1:17" hidden="1">
       <c r="A161" s="18" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B161" s="18" t="s">
         <v>103</v>
@@ -9122,13 +9232,13 @@
         <v>104</v>
       </c>
       <c r="D161" s="18" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E161" s="18" t="s">
         <v>19</v>
       </c>
       <c r="F161" s="19" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G161" s="19" t="s">
         <v>21</v>
@@ -9143,7 +9253,7 @@
         <v>2022</v>
       </c>
       <c r="K161" s="19" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L161" s="18" t="s">
         <v>69</v>
@@ -9154,9 +9264,9 @@
       <c r="P161" s="2"/>
       <c r="Q161" s="2"/>
     </row>
-    <row r="162" spans="1:17">
+    <row r="162" spans="1:17" hidden="1">
       <c r="A162" s="18" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B162" s="18" t="s">
         <v>103</v>
@@ -9165,28 +9275,28 @@
         <v>104</v>
       </c>
       <c r="D162" s="18" t="s">
+        <v>442</v>
+      </c>
+      <c r="E162" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F162" s="19" t="s">
+        <v>440</v>
+      </c>
+      <c r="G162" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="H162" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="I162" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="J162" s="19">
+        <v>2022</v>
+      </c>
+      <c r="K162" s="19" t="s">
         <v>441</v>
-      </c>
-      <c r="E162" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F162" s="19" t="s">
-        <v>439</v>
-      </c>
-      <c r="G162" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="H162" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="I162" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="J162" s="19">
-        <v>2022</v>
-      </c>
-      <c r="K162" s="19" t="s">
-        <v>440</v>
       </c>
       <c r="L162" s="18" t="s">
         <v>69</v>
@@ -9197,9 +9307,9 @@
       <c r="P162" s="2"/>
       <c r="Q162" s="2"/>
     </row>
-    <row r="163" spans="1:17">
+    <row r="163" spans="1:17" hidden="1">
       <c r="A163" s="18" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B163" s="18" t="s">
         <v>103</v>
@@ -9208,13 +9318,13 @@
         <v>104</v>
       </c>
       <c r="D163" s="18" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E163" s="18" t="s">
         <v>19</v>
       </c>
       <c r="F163" s="19" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G163" s="19" t="s">
         <v>21</v>
@@ -9229,7 +9339,7 @@
         <v>2022</v>
       </c>
       <c r="K163" s="19" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L163" s="18" t="s">
         <v>69</v>
@@ -9240,9 +9350,9 @@
       <c r="P163" s="2"/>
       <c r="Q163" s="2"/>
     </row>
-    <row r="164" spans="1:17">
+    <row r="164" spans="1:17" hidden="1">
       <c r="A164" s="18" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B164" s="18" t="s">
         <v>109</v>
@@ -9251,13 +9361,13 @@
         <v>104</v>
       </c>
       <c r="D164" s="18" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E164" s="18" t="s">
         <v>19</v>
       </c>
       <c r="F164" s="19" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G164" s="19" t="s">
         <v>21</v>
@@ -9272,7 +9382,7 @@
         <v>2022</v>
       </c>
       <c r="K164" s="19" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L164" s="18" t="s">
         <v>69</v>
@@ -9283,9 +9393,9 @@
       <c r="P164" s="2"/>
       <c r="Q164" s="2"/>
     </row>
-    <row r="165" spans="1:17">
+    <row r="165" spans="1:17" hidden="1">
       <c r="A165" s="18" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B165" s="18" t="s">
         <v>109</v>
@@ -9294,13 +9404,13 @@
         <v>104</v>
       </c>
       <c r="D165" s="18" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E165" s="18" t="s">
         <v>19</v>
       </c>
       <c r="F165" s="19" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G165" s="19" t="s">
         <v>21</v>
@@ -9315,7 +9425,7 @@
         <v>2022</v>
       </c>
       <c r="K165" s="19" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L165" s="18" t="s">
         <v>69</v>
@@ -9326,9 +9436,9 @@
       <c r="P165" s="2"/>
       <c r="Q165" s="2"/>
     </row>
-    <row r="166" spans="1:17">
+    <row r="166" spans="1:17" hidden="1">
       <c r="A166" s="18" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B166" s="18" t="s">
         <v>109</v>
@@ -9337,13 +9447,13 @@
         <v>104</v>
       </c>
       <c r="D166" s="21" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E166" s="18" t="s">
         <v>19</v>
       </c>
       <c r="F166" s="19" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G166" s="19" t="s">
         <v>21</v>
@@ -9358,7 +9468,7 @@
         <v>2021</v>
       </c>
       <c r="K166" s="19" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L166" s="18" t="s">
         <v>69</v>
@@ -9369,9 +9479,9 @@
       <c r="P166" s="2"/>
       <c r="Q166" s="2"/>
     </row>
-    <row r="167" spans="1:17">
+    <row r="167" spans="1:17" hidden="1">
       <c r="A167" s="18" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B167" s="18" t="s">
         <v>109</v>
@@ -9380,13 +9490,13 @@
         <v>104</v>
       </c>
       <c r="D167" s="21" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E167" s="18" t="s">
         <v>19</v>
       </c>
       <c r="F167" s="19" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G167" s="19" t="s">
         <v>21</v>
@@ -9401,7 +9511,7 @@
         <v>2022</v>
       </c>
       <c r="K167" s="19" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L167" s="18" t="s">
         <v>69</v>
@@ -9412,9 +9522,9 @@
       <c r="P167" s="2"/>
       <c r="Q167" s="2"/>
     </row>
-    <row r="168" spans="1:17">
+    <row r="168" spans="1:17" hidden="1">
       <c r="A168" s="18" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B168" s="18" t="s">
         <v>112</v>
@@ -9423,13 +9533,13 @@
         <v>104</v>
       </c>
       <c r="D168" s="18" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E168" s="18" t="s">
         <v>19</v>
       </c>
       <c r="F168" s="19" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G168" s="19" t="s">
         <v>21</v>
@@ -9444,7 +9554,7 @@
         <v>2022</v>
       </c>
       <c r="K168" s="19" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L168" s="18" t="s">
         <v>69</v>
@@ -9455,9 +9565,9 @@
       <c r="P168" s="2"/>
       <c r="Q168" s="2"/>
     </row>
-    <row r="169" spans="1:17">
+    <row r="169" spans="1:17" hidden="1">
       <c r="A169" s="18" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B169" s="18" t="s">
         <v>112</v>
@@ -9466,13 +9576,13 @@
         <v>104</v>
       </c>
       <c r="D169" s="21" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E169" s="18" t="s">
         <v>19</v>
       </c>
       <c r="F169" s="19" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G169" s="19" t="s">
         <v>21</v>
@@ -9487,7 +9597,7 @@
         <v>2021</v>
       </c>
       <c r="K169" s="19" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L169" s="18" t="s">
         <v>69</v>
@@ -9498,9 +9608,9 @@
       <c r="P169" s="2"/>
       <c r="Q169" s="2"/>
     </row>
-    <row r="170" spans="1:17">
+    <row r="170" spans="1:17" hidden="1">
       <c r="A170" s="18" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B170" s="18" t="s">
         <v>112</v>
@@ -9509,13 +9619,13 @@
         <v>104</v>
       </c>
       <c r="D170" s="21" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E170" s="18" t="s">
         <v>19</v>
       </c>
       <c r="F170" s="19" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G170" s="19" t="s">
         <v>21</v>
@@ -9530,7 +9640,7 @@
         <v>2022</v>
       </c>
       <c r="K170" s="19" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L170" s="18" t="s">
         <v>69</v>
@@ -9541,9 +9651,9 @@
       <c r="P170" s="2"/>
       <c r="Q170" s="2"/>
     </row>
-    <row r="171" spans="1:17">
+    <row r="171" spans="1:17" hidden="1">
       <c r="A171" s="18" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B171" s="18" t="s">
         <v>112</v>
@@ -9552,13 +9662,13 @@
         <v>104</v>
       </c>
       <c r="D171" s="18" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E171" s="18" t="s">
         <v>19</v>
       </c>
       <c r="F171" s="19" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G171" s="19" t="s">
         <v>21</v>
@@ -9573,7 +9683,7 @@
         <v>2021</v>
       </c>
       <c r="K171" s="19" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L171" s="18" t="s">
         <v>69</v>
@@ -9584,9 +9694,9 @@
       <c r="P171" s="2"/>
       <c r="Q171" s="2"/>
     </row>
-    <row r="172" spans="1:17">
+    <row r="172" spans="1:17" hidden="1">
       <c r="A172" s="18" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B172" s="18" t="s">
         <v>115</v>
@@ -9595,13 +9705,13 @@
         <v>104</v>
       </c>
       <c r="D172" s="18" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E172" s="18" t="s">
         <v>19</v>
       </c>
       <c r="F172" s="19" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G172" s="19" t="s">
         <v>21</v>
@@ -9616,7 +9726,7 @@
         <v>2022</v>
       </c>
       <c r="K172" s="19" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L172" s="18" t="s">
         <v>69</v>
@@ -9627,9 +9737,9 @@
       <c r="P172" s="2"/>
       <c r="Q172" s="2"/>
     </row>
-    <row r="173" spans="1:17">
+    <row r="173" spans="1:17" hidden="1">
       <c r="A173" s="18" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B173" s="18" t="s">
         <v>115</v>
@@ -9638,13 +9748,13 @@
         <v>104</v>
       </c>
       <c r="D173" s="21" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E173" s="18" t="s">
         <v>19</v>
       </c>
       <c r="F173" s="19" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G173" s="19" t="s">
         <v>21</v>
@@ -9659,7 +9769,7 @@
         <v>2021</v>
       </c>
       <c r="K173" s="19" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L173" s="18" t="s">
         <v>69</v>
@@ -9670,9 +9780,9 @@
       <c r="P173" s="2"/>
       <c r="Q173" s="2"/>
     </row>
-    <row r="174" spans="1:17">
+    <row r="174" spans="1:17" hidden="1">
       <c r="A174" s="18" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B174" s="18" t="s">
         <v>115</v>
@@ -9681,13 +9791,13 @@
         <v>104</v>
       </c>
       <c r="D174" s="21" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E174" s="18" t="s">
         <v>19</v>
       </c>
       <c r="F174" s="19" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G174" s="19" t="s">
         <v>21</v>
@@ -9702,7 +9812,7 @@
         <v>2022</v>
       </c>
       <c r="K174" s="19" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L174" s="18" t="s">
         <v>69</v>
@@ -9713,9 +9823,9 @@
       <c r="P174" s="2"/>
       <c r="Q174" s="2"/>
     </row>
-    <row r="175" spans="1:17">
+    <row r="175" spans="1:17" hidden="1">
       <c r="A175" s="18" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B175" s="18" t="s">
         <v>115</v>
@@ -9724,13 +9834,13 @@
         <v>104</v>
       </c>
       <c r="D175" s="18" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E175" s="18" t="s">
         <v>19</v>
       </c>
       <c r="F175" s="19" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G175" s="19" t="s">
         <v>21</v>
@@ -9745,7 +9855,7 @@
         <v>2022</v>
       </c>
       <c r="K175" s="19" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L175" s="18" t="s">
         <v>69</v>
@@ -9756,9 +9866,9 @@
       <c r="P175" s="2"/>
       <c r="Q175" s="2"/>
     </row>
-    <row r="176" spans="1:17">
+    <row r="176" spans="1:17" hidden="1">
       <c r="A176" s="18" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B176" s="18" t="s">
         <v>118</v>
@@ -9767,13 +9877,13 @@
         <v>104</v>
       </c>
       <c r="D176" s="18" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E176" s="18" t="s">
         <v>19</v>
       </c>
       <c r="F176" s="19" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G176" s="19" t="s">
         <v>21</v>
@@ -9788,7 +9898,7 @@
         <v>2022</v>
       </c>
       <c r="K176" s="19" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L176" s="18" t="s">
         <v>69</v>
@@ -9799,9 +9909,9 @@
       <c r="P176" s="2"/>
       <c r="Q176" s="2"/>
     </row>
-    <row r="177" spans="1:17">
+    <row r="177" spans="1:17" hidden="1">
       <c r="A177" s="18" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B177" s="18" t="s">
         <v>118</v>
@@ -9810,13 +9920,13 @@
         <v>104</v>
       </c>
       <c r="D177" s="21" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E177" s="18" t="s">
         <v>19</v>
       </c>
       <c r="F177" s="19" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G177" s="19" t="s">
         <v>21</v>
@@ -9831,7 +9941,7 @@
         <v>2021</v>
       </c>
       <c r="K177" s="19" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L177" s="18" t="s">
         <v>69</v>
@@ -9842,9 +9952,9 @@
       <c r="P177" s="2"/>
       <c r="Q177" s="2"/>
     </row>
-    <row r="178" spans="1:17">
+    <row r="178" spans="1:17" hidden="1">
       <c r="A178" s="18" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B178" s="18" t="s">
         <v>118</v>
@@ -9853,13 +9963,13 @@
         <v>104</v>
       </c>
       <c r="D178" s="21" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E178" s="18" t="s">
         <v>19</v>
       </c>
       <c r="F178" s="19" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G178" s="19" t="s">
         <v>21</v>
@@ -9874,7 +9984,7 @@
         <v>2022</v>
       </c>
       <c r="K178" s="19" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L178" s="18" t="s">
         <v>69</v>
@@ -9885,9 +9995,9 @@
       <c r="P178" s="2"/>
       <c r="Q178" s="2"/>
     </row>
-    <row r="179" spans="1:17">
+    <row r="179" spans="1:17" hidden="1">
       <c r="A179" s="18" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B179" s="18" t="s">
         <v>127</v>
@@ -9896,13 +10006,13 @@
         <v>74</v>
       </c>
       <c r="D179" s="18" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E179" s="18" t="s">
         <v>19</v>
       </c>
       <c r="F179" s="19" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G179" s="19" t="s">
         <v>21</v>
@@ -9917,7 +10027,7 @@
         <v>2022</v>
       </c>
       <c r="K179" s="19" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L179" s="18" t="s">
         <v>69</v>
@@ -9928,9 +10038,9 @@
       <c r="P179" s="2"/>
       <c r="Q179" s="2"/>
     </row>
-    <row r="180" spans="1:17">
+    <row r="180" spans="1:17" hidden="1">
       <c r="A180" s="18" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B180" s="18" t="s">
         <v>127</v>
@@ -9939,13 +10049,13 @@
         <v>74</v>
       </c>
       <c r="D180" s="18" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E180" s="18" t="s">
         <v>19</v>
       </c>
       <c r="F180" s="19" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G180" s="19" t="s">
         <v>21</v>
@@ -9960,7 +10070,7 @@
         <v>2022</v>
       </c>
       <c r="K180" s="19" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L180" s="18" t="s">
         <v>69</v>
@@ -9971,9 +10081,9 @@
       <c r="P180" s="2"/>
       <c r="Q180" s="2"/>
     </row>
-    <row r="181" spans="1:17">
+    <row r="181" spans="1:17" hidden="1">
       <c r="A181" s="18" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B181" s="18" t="s">
         <v>127</v>
@@ -9982,13 +10092,13 @@
         <v>74</v>
       </c>
       <c r="D181" s="21" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E181" s="18" t="s">
         <v>19</v>
       </c>
       <c r="F181" s="19" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G181" s="19" t="s">
         <v>21</v>
@@ -10003,7 +10113,7 @@
         <v>2021</v>
       </c>
       <c r="K181" s="19" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L181" s="18" t="s">
         <v>69</v>
@@ -10014,9 +10124,9 @@
       <c r="P181" s="2"/>
       <c r="Q181" s="2"/>
     </row>
-    <row r="182" spans="1:17">
+    <row r="182" spans="1:17" hidden="1">
       <c r="A182" s="18" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B182" s="18" t="s">
         <v>127</v>
@@ -10025,13 +10135,13 @@
         <v>74</v>
       </c>
       <c r="D182" s="21" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E182" s="18" t="s">
         <v>19</v>
       </c>
       <c r="F182" s="19" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G182" s="19" t="s">
         <v>21</v>
@@ -10046,7 +10156,7 @@
         <v>2022</v>
       </c>
       <c r="K182" s="19" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L182" s="18" t="s">
         <v>69</v>
@@ -10057,9 +10167,9 @@
       <c r="P182" s="2"/>
       <c r="Q182" s="2"/>
     </row>
-    <row r="183" spans="1:17">
+    <row r="183" spans="1:17" hidden="1">
       <c r="A183" s="18" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B183" s="18" t="s">
         <v>151</v>
@@ -10068,13 +10178,13 @@
         <v>74</v>
       </c>
       <c r="D183" s="18" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E183" s="18" t="s">
         <v>19</v>
       </c>
       <c r="F183" s="19" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G183" s="19" t="s">
         <v>21</v>
@@ -10089,7 +10199,7 @@
         <v>2022</v>
       </c>
       <c r="K183" s="19" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L183" s="18" t="s">
         <v>69</v>
@@ -10100,9 +10210,9 @@
       <c r="P183" s="2"/>
       <c r="Q183" s="2"/>
     </row>
-    <row r="184" spans="1:17">
+    <row r="184" spans="1:17" hidden="1">
       <c r="A184" s="18" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B184" s="18" t="s">
         <v>151</v>
@@ -10111,13 +10221,13 @@
         <v>74</v>
       </c>
       <c r="D184" s="18" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E184" s="18" t="s">
         <v>19</v>
       </c>
       <c r="F184" s="19" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G184" s="19" t="s">
         <v>21</v>
@@ -10132,7 +10242,7 @@
         <v>2022</v>
       </c>
       <c r="K184" s="19" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L184" s="18" t="s">
         <v>69</v>
@@ -10143,9 +10253,9 @@
       <c r="P184" s="2"/>
       <c r="Q184" s="2"/>
     </row>
-    <row r="185" spans="1:17">
+    <row r="185" spans="1:17" hidden="1">
       <c r="A185" s="18" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B185" s="18" t="s">
         <v>151</v>
@@ -10154,13 +10264,13 @@
         <v>74</v>
       </c>
       <c r="D185" s="21" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E185" s="18" t="s">
         <v>19</v>
       </c>
       <c r="F185" s="19" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G185" s="19" t="s">
         <v>21</v>
@@ -10175,7 +10285,7 @@
         <v>2021</v>
       </c>
       <c r="K185" s="19" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L185" s="18" t="s">
         <v>69</v>
@@ -10186,9 +10296,9 @@
       <c r="P185" s="2"/>
       <c r="Q185" s="2"/>
     </row>
-    <row r="186" spans="1:17">
+    <row r="186" spans="1:17" hidden="1">
       <c r="A186" s="18" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B186" s="18" t="s">
         <v>151</v>
@@ -10197,13 +10307,13 @@
         <v>74</v>
       </c>
       <c r="D186" s="21" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E186" s="18" t="s">
         <v>19</v>
       </c>
       <c r="F186" s="19" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G186" s="19" t="s">
         <v>21</v>
@@ -10218,7 +10328,7 @@
         <v>2022</v>
       </c>
       <c r="K186" s="19" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L186" s="18" t="s">
         <v>69</v>
@@ -10229,9 +10339,9 @@
       <c r="P186" s="2"/>
       <c r="Q186" s="2"/>
     </row>
-    <row r="187" spans="1:17">
+    <row r="187" spans="1:17" hidden="1">
       <c r="A187" s="18" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B187" s="18" t="s">
         <v>164</v>
@@ -10240,13 +10350,13 @@
         <v>74</v>
       </c>
       <c r="D187" s="18" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E187" s="18" t="s">
         <v>19</v>
       </c>
       <c r="F187" s="19" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G187" s="19" t="s">
         <v>21</v>
@@ -10261,7 +10371,7 @@
         <v>2022</v>
       </c>
       <c r="K187" s="19" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L187" s="18" t="s">
         <v>69</v>
@@ -10272,9 +10382,9 @@
       <c r="P187" s="2"/>
       <c r="Q187" s="2"/>
     </row>
-    <row r="188" spans="1:17">
+    <row r="188" spans="1:17" hidden="1">
       <c r="A188" s="18" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B188" s="18" t="s">
         <v>164</v>
@@ -10283,13 +10393,13 @@
         <v>74</v>
       </c>
       <c r="D188" s="18" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E188" s="18" t="s">
         <v>19</v>
       </c>
       <c r="F188" s="19" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G188" s="19" t="s">
         <v>21</v>
@@ -10304,7 +10414,7 @@
         <v>2022</v>
       </c>
       <c r="K188" s="19" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L188" s="18" t="s">
         <v>69</v>
@@ -10315,9 +10425,9 @@
       <c r="P188" s="2"/>
       <c r="Q188" s="2"/>
     </row>
-    <row r="189" spans="1:17">
+    <row r="189" spans="1:17" hidden="1">
       <c r="A189" s="18" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B189" s="18" t="s">
         <v>164</v>
@@ -10326,13 +10436,13 @@
         <v>74</v>
       </c>
       <c r="D189" s="21" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E189" s="18" t="s">
         <v>19</v>
       </c>
       <c r="F189" s="19" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G189" s="19" t="s">
         <v>21</v>
@@ -10347,7 +10457,7 @@
         <v>2021</v>
       </c>
       <c r="K189" s="19" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L189" s="18" t="s">
         <v>69</v>
@@ -10358,9 +10468,9 @@
       <c r="P189" s="2"/>
       <c r="Q189" s="2"/>
     </row>
-    <row r="190" spans="1:17">
+    <row r="190" spans="1:17" hidden="1">
       <c r="A190" s="18" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B190" s="18" t="s">
         <v>164</v>
@@ -10369,13 +10479,13 @@
         <v>74</v>
       </c>
       <c r="D190" s="21" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E190" s="18" t="s">
         <v>19</v>
       </c>
       <c r="F190" s="19" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G190" s="19" t="s">
         <v>21</v>
@@ -10390,7 +10500,7 @@
         <v>2022</v>
       </c>
       <c r="K190" s="19" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L190" s="18" t="s">
         <v>69</v>
@@ -10401,9 +10511,9 @@
       <c r="P190" s="2"/>
       <c r="Q190" s="2"/>
     </row>
-    <row r="191" spans="1:17">
+    <row r="191" spans="1:17" hidden="1">
       <c r="A191" s="18" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B191" s="18" t="s">
         <v>168</v>
@@ -10412,13 +10522,13 @@
         <v>74</v>
       </c>
       <c r="D191" s="18" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E191" s="18" t="s">
         <v>19</v>
       </c>
       <c r="F191" s="19" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G191" s="19" t="s">
         <v>21</v>
@@ -10433,7 +10543,7 @@
         <v>2022</v>
       </c>
       <c r="K191" s="19" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L191" s="18" t="s">
         <v>69</v>
@@ -10444,9 +10554,9 @@
       <c r="P191" s="2"/>
       <c r="Q191" s="2"/>
     </row>
-    <row r="192" spans="1:17">
+    <row r="192" spans="1:17" hidden="1">
       <c r="A192" s="18" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B192" s="18" t="s">
         <v>168</v>
@@ -10455,13 +10565,13 @@
         <v>74</v>
       </c>
       <c r="D192" s="21" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E192" s="18" t="s">
         <v>19</v>
       </c>
       <c r="F192" s="19" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G192" s="19" t="s">
         <v>21</v>
@@ -10476,7 +10586,7 @@
         <v>2021</v>
       </c>
       <c r="K192" s="19" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L192" s="18" t="s">
         <v>69</v>
@@ -10487,9 +10597,9 @@
       <c r="P192" s="2"/>
       <c r="Q192" s="2"/>
     </row>
-    <row r="193" spans="1:17">
+    <row r="193" spans="1:17" hidden="1">
       <c r="A193" s="18" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B193" s="18" t="s">
         <v>168</v>
@@ -10498,13 +10608,13 @@
         <v>74</v>
       </c>
       <c r="D193" s="21" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E193" s="18" t="s">
         <v>19</v>
       </c>
       <c r="F193" s="19" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G193" s="19" t="s">
         <v>21</v>
@@ -10519,7 +10629,7 @@
         <v>2022</v>
       </c>
       <c r="K193" s="19" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L193" s="18" t="s">
         <v>69</v>
@@ -10530,9 +10640,9 @@
       <c r="P193" s="2"/>
       <c r="Q193" s="2"/>
     </row>
-    <row r="194" spans="1:17">
+    <row r="194" spans="1:17" hidden="1">
       <c r="A194" s="18" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B194" s="18" t="s">
         <v>168</v>
@@ -10541,13 +10651,13 @@
         <v>74</v>
       </c>
       <c r="D194" s="18" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E194" s="18" t="s">
         <v>19</v>
       </c>
       <c r="F194" s="19" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G194" s="19" t="s">
         <v>21</v>
@@ -10562,7 +10672,7 @@
         <v>2022</v>
       </c>
       <c r="K194" s="19" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L194" s="18" t="s">
         <v>69</v>
@@ -10573,9 +10683,9 @@
       <c r="P194" s="2"/>
       <c r="Q194" s="2"/>
     </row>
-    <row r="195" spans="1:17">
+    <row r="195" spans="1:17" hidden="1">
       <c r="A195" s="18" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B195" s="18" t="s">
         <v>173</v>
@@ -10584,13 +10694,13 @@
         <v>74</v>
       </c>
       <c r="D195" s="18" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E195" s="18" t="s">
         <v>19</v>
       </c>
       <c r="F195" s="19" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G195" s="19" t="s">
         <v>21</v>
@@ -10605,7 +10715,7 @@
         <v>2022</v>
       </c>
       <c r="K195" s="19" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L195" s="18" t="s">
         <v>69</v>
@@ -10616,9 +10726,9 @@
       <c r="P195" s="2"/>
       <c r="Q195" s="2"/>
     </row>
-    <row r="196" spans="1:17">
+    <row r="196" spans="1:17" hidden="1">
       <c r="A196" s="18" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B196" s="18" t="s">
         <v>173</v>
@@ -10627,13 +10737,13 @@
         <v>74</v>
       </c>
       <c r="D196" s="21" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E196" s="18" t="s">
         <v>19</v>
       </c>
       <c r="F196" s="19" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G196" s="19" t="s">
         <v>21</v>
@@ -10648,7 +10758,7 @@
         <v>2021</v>
       </c>
       <c r="K196" s="19" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L196" s="18" t="s">
         <v>69</v>
@@ -10659,9 +10769,9 @@
       <c r="P196" s="2"/>
       <c r="Q196" s="2"/>
     </row>
-    <row r="197" spans="1:17">
+    <row r="197" spans="1:17" hidden="1">
       <c r="A197" s="18" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B197" s="18" t="s">
         <v>173</v>
@@ -10670,13 +10780,13 @@
         <v>74</v>
       </c>
       <c r="D197" s="21" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E197" s="18" t="s">
         <v>19</v>
       </c>
       <c r="F197" s="19" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G197" s="19" t="s">
         <v>21</v>
@@ -10691,7 +10801,7 @@
         <v>2022</v>
       </c>
       <c r="K197" s="19" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L197" s="18" t="s">
         <v>69</v>
@@ -10702,9 +10812,9 @@
       <c r="P197" s="2"/>
       <c r="Q197" s="2"/>
     </row>
-    <row r="198" spans="1:17">
+    <row r="198" spans="1:17" hidden="1">
       <c r="A198" s="18" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B198" s="18" t="s">
         <v>173</v>
@@ -10713,13 +10823,13 @@
         <v>74</v>
       </c>
       <c r="D198" s="18" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E198" s="18" t="s">
         <v>19</v>
       </c>
       <c r="F198" s="19" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G198" s="19" t="s">
         <v>21</v>
@@ -10734,7 +10844,7 @@
         <v>2022</v>
       </c>
       <c r="K198" s="19" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L198" s="18" t="s">
         <v>69</v>
@@ -10745,9 +10855,9 @@
       <c r="P198" s="2"/>
       <c r="Q198" s="2"/>
     </row>
-    <row r="199" spans="1:17">
+    <row r="199" spans="1:17" hidden="1">
       <c r="A199" s="18" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B199" s="18" t="s">
         <v>178</v>
@@ -10756,13 +10866,13 @@
         <v>74</v>
       </c>
       <c r="D199" s="18" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E199" s="18" t="s">
         <v>19</v>
       </c>
       <c r="F199" s="19" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G199" s="19" t="s">
         <v>21</v>
@@ -10777,7 +10887,7 @@
         <v>2022</v>
       </c>
       <c r="K199" s="19" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L199" s="18" t="s">
         <v>69</v>
@@ -10788,9 +10898,9 @@
       <c r="P199" s="2"/>
       <c r="Q199" s="2"/>
     </row>
-    <row r="200" spans="1:17">
+    <row r="200" spans="1:17" hidden="1">
       <c r="A200" s="18" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B200" s="18" t="s">
         <v>178</v>
@@ -10799,13 +10909,13 @@
         <v>74</v>
       </c>
       <c r="D200" s="21" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E200" s="18" t="s">
         <v>19</v>
       </c>
       <c r="F200" s="19" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G200" s="19" t="s">
         <v>21</v>
@@ -10820,7 +10930,7 @@
         <v>2021</v>
       </c>
       <c r="K200" s="19" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L200" s="18" t="s">
         <v>69</v>
@@ -10831,9 +10941,9 @@
       <c r="P200" s="2"/>
       <c r="Q200" s="2"/>
     </row>
-    <row r="201" spans="1:17">
+    <row r="201" spans="1:17" hidden="1">
       <c r="A201" s="18" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B201" s="18" t="s">
         <v>178</v>
@@ -10842,13 +10952,13 @@
         <v>74</v>
       </c>
       <c r="D201" s="21" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E201" s="18" t="s">
         <v>19</v>
       </c>
       <c r="F201" s="19" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G201" s="19" t="s">
         <v>21</v>
@@ -10863,7 +10973,7 @@
         <v>2022</v>
       </c>
       <c r="K201" s="19" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L201" s="18" t="s">
         <v>69</v>
@@ -10874,9 +10984,9 @@
       <c r="P201" s="2"/>
       <c r="Q201" s="2"/>
     </row>
-    <row r="202" spans="1:17">
+    <row r="202" spans="1:17" hidden="1">
       <c r="A202" s="18" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B202" s="18" t="s">
         <v>178</v>
@@ -10885,13 +10995,13 @@
         <v>74</v>
       </c>
       <c r="D202" s="18" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E202" s="18" t="s">
         <v>19</v>
       </c>
       <c r="F202" s="19" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G202" s="19" t="s">
         <v>21</v>
@@ -10906,7 +11016,7 @@
         <v>2022</v>
       </c>
       <c r="K202" s="19" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L202" s="18" t="s">
         <v>69</v>
@@ -10919,7 +11029,7 @@
     </row>
     <row r="203" spans="1:17">
       <c r="A203" s="5" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B203" s="5" t="s">
         <v>229</v>
@@ -10928,13 +11038,13 @@
         <v>220</v>
       </c>
       <c r="D203" s="5" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E203" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F203" s="8" t="s">
-        <v>439</v>
+      <c r="F203" s="29" t="s">
+        <v>440</v>
       </c>
       <c r="G203" s="8" t="s">
         <v>21</v>
@@ -10949,7 +11059,7 @@
         <v>2022</v>
       </c>
       <c r="K203" s="8" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L203" s="5" t="s">
         <v>170</v>
@@ -10966,7 +11076,7 @@
     </row>
     <row r="204" spans="1:17">
       <c r="A204" s="5" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B204" s="5" t="s">
         <v>229</v>
@@ -10975,13 +11085,13 @@
         <v>220</v>
       </c>
       <c r="D204" s="5" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E204" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F204" s="8" t="s">
-        <v>439</v>
+      <c r="F204" s="29" t="s">
+        <v>440</v>
       </c>
       <c r="G204" s="8" t="s">
         <v>21</v>
@@ -10996,7 +11106,7 @@
         <v>2022</v>
       </c>
       <c r="K204" s="8" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L204" s="5" t="s">
         <v>170</v>
@@ -11013,7 +11123,7 @@
     </row>
     <row r="205" spans="1:17">
       <c r="A205" s="5" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B205" s="5" t="s">
         <v>238</v>
@@ -11022,13 +11132,13 @@
         <v>220</v>
       </c>
       <c r="D205" s="5" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E205" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F205" s="8" t="s">
-        <v>439</v>
+      <c r="F205" s="29" t="s">
+        <v>440</v>
       </c>
       <c r="G205" s="8" t="s">
         <v>21</v>
@@ -11043,7 +11153,7 @@
         <v>2022</v>
       </c>
       <c r="K205" s="8" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L205" s="5" t="s">
         <v>240</v>
@@ -11062,7 +11172,7 @@
     </row>
     <row r="206" spans="1:17">
       <c r="A206" s="5" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B206" s="5" t="s">
         <v>238</v>
@@ -11071,13 +11181,13 @@
         <v>220</v>
       </c>
       <c r="D206" s="5" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E206" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F206" s="8" t="s">
-        <v>439</v>
+      <c r="F206" s="29" t="s">
+        <v>440</v>
       </c>
       <c r="G206" s="8" t="s">
         <v>21</v>
@@ -11092,7 +11202,7 @@
         <v>2022</v>
       </c>
       <c r="K206" s="8" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L206" s="5" t="s">
         <v>240</v>
@@ -11111,7 +11221,7 @@
     </row>
     <row r="207" spans="1:17">
       <c r="A207" s="5" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B207" s="5" t="s">
         <v>242</v>
@@ -11120,13 +11230,13 @@
         <v>220</v>
       </c>
       <c r="D207" s="5" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="E207" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F207" s="8" t="s">
-        <v>439</v>
+      <c r="F207" s="29" t="s">
+        <v>440</v>
       </c>
       <c r="G207" s="8" t="s">
         <v>21</v>
@@ -11141,7 +11251,7 @@
         <v>2022</v>
       </c>
       <c r="K207" s="8" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L207" s="5" t="s">
         <v>240</v>
@@ -11160,7 +11270,7 @@
     </row>
     <row r="208" spans="1:17">
       <c r="A208" s="5" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B208" s="5" t="s">
         <v>242</v>
@@ -11169,13 +11279,13 @@
         <v>220</v>
       </c>
       <c r="D208" s="5" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E208" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F208" s="8" t="s">
-        <v>439</v>
+      <c r="F208" s="29" t="s">
+        <v>440</v>
       </c>
       <c r="G208" s="8" t="s">
         <v>21</v>
@@ -11190,7 +11300,7 @@
         <v>2022</v>
       </c>
       <c r="K208" s="8" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L208" s="5" t="s">
         <v>240</v>
@@ -11209,7 +11319,7 @@
     </row>
     <row r="209" spans="1:17">
       <c r="A209" s="5" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B209" s="5" t="s">
         <v>246</v>
@@ -11218,13 +11328,13 @@
         <v>220</v>
       </c>
       <c r="D209" s="5" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E209" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F209" s="8" t="s">
-        <v>439</v>
+      <c r="F209" s="29" t="s">
+        <v>440</v>
       </c>
       <c r="G209" s="8" t="s">
         <v>21</v>
@@ -11239,7 +11349,7 @@
         <v>2022</v>
       </c>
       <c r="K209" s="8" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L209" s="5" t="s">
         <v>25</v>
@@ -11256,7 +11366,7 @@
     </row>
     <row r="210" spans="1:17">
       <c r="A210" s="5" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B210" s="5" t="s">
         <v>246</v>
@@ -11265,13 +11375,13 @@
         <v>220</v>
       </c>
       <c r="D210" s="5" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E210" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F210" s="8" t="s">
-        <v>439</v>
+      <c r="F210" s="29" t="s">
+        <v>440</v>
       </c>
       <c r="G210" s="8" t="s">
         <v>21</v>
@@ -11286,7 +11396,7 @@
         <v>2022</v>
       </c>
       <c r="K210" s="8" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L210" s="5" t="s">
         <v>25</v>
@@ -11303,7 +11413,7 @@
     </row>
     <row r="211" spans="1:17">
       <c r="A211" s="5" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B211" s="5" t="s">
         <v>250</v>
@@ -11312,13 +11422,13 @@
         <v>220</v>
       </c>
       <c r="D211" s="5" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E211" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F211" s="8" t="s">
-        <v>439</v>
+      <c r="F211" s="29" t="s">
+        <v>440</v>
       </c>
       <c r="G211" s="8" t="s">
         <v>21</v>
@@ -11333,7 +11443,7 @@
         <v>2022</v>
       </c>
       <c r="K211" s="8" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L211" s="5" t="s">
         <v>240</v>
@@ -11352,7 +11462,7 @@
     </row>
     <row r="212" spans="1:17">
       <c r="A212" s="5" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B212" s="5" t="s">
         <v>250</v>
@@ -11361,13 +11471,13 @@
         <v>220</v>
       </c>
       <c r="D212" s="5" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="E212" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F212" s="8" t="s">
-        <v>439</v>
+      <c r="F212" s="29" t="s">
+        <v>440</v>
       </c>
       <c r="G212" s="8" t="s">
         <v>21</v>
@@ -11382,7 +11492,7 @@
         <v>2022</v>
       </c>
       <c r="K212" s="8" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L212" s="5" t="s">
         <v>240</v>
@@ -11401,7 +11511,7 @@
     </row>
     <row r="213" spans="1:17">
       <c r="A213" s="5" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B213" s="5" t="s">
         <v>277</v>
@@ -11410,13 +11520,13 @@
         <v>220</v>
       </c>
       <c r="D213" s="5" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E213" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F213" s="8" t="s">
-        <v>439</v>
+      <c r="F213" s="29" t="s">
+        <v>440</v>
       </c>
       <c r="G213" s="8" t="s">
         <v>21</v>
@@ -11431,7 +11541,7 @@
         <v>2022</v>
       </c>
       <c r="K213" s="8" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L213" s="5" t="s">
         <v>176</v>
@@ -11448,7 +11558,7 @@
     </row>
     <row r="214" spans="1:17">
       <c r="A214" s="5" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B214" s="5" t="s">
         <v>277</v>
@@ -11457,13 +11567,13 @@
         <v>220</v>
       </c>
       <c r="D214" s="5" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E214" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F214" s="8" t="s">
-        <v>439</v>
+      <c r="F214" s="29" t="s">
+        <v>440</v>
       </c>
       <c r="G214" s="8" t="s">
         <v>21</v>
@@ -11478,7 +11588,7 @@
         <v>2022</v>
       </c>
       <c r="K214" s="8" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L214" s="5" t="s">
         <v>176</v>
@@ -11495,22 +11605,22 @@
     </row>
     <row r="215" spans="1:17">
       <c r="A215" s="5" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C215" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D215" s="5" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E215" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F215" s="8" t="s">
-        <v>439</v>
+      <c r="F215" s="29" t="s">
+        <v>440</v>
       </c>
       <c r="G215" s="8" t="s">
         <v>21</v>
@@ -11525,7 +11635,7 @@
         <v>2022</v>
       </c>
       <c r="K215" s="8" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L215" s="5" t="s">
         <v>170</v>
@@ -11542,22 +11652,22 @@
     </row>
     <row r="216" spans="1:17">
       <c r="A216" s="5" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C216" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D216" s="5" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E216" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F216" s="8" t="s">
-        <v>439</v>
+      <c r="F216" s="29" t="s">
+        <v>440</v>
       </c>
       <c r="G216" s="8" t="s">
         <v>21</v>
@@ -11572,7 +11682,7 @@
         <v>2022</v>
       </c>
       <c r="K216" s="8" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L216" s="5" t="s">
         <v>170</v>
@@ -11589,22 +11699,22 @@
     </row>
     <row r="217" spans="1:17">
       <c r="A217" s="5" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C217" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D217" s="5" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E217" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F217" s="8" t="s">
-        <v>439</v>
+      <c r="F217" s="29" t="s">
+        <v>440</v>
       </c>
       <c r="G217" s="8" t="s">
         <v>21</v>
@@ -11619,7 +11729,7 @@
         <v>2022</v>
       </c>
       <c r="K217" s="8" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L217" s="5" t="s">
         <v>170</v>
@@ -11636,22 +11746,22 @@
     </row>
     <row r="218" spans="1:17">
       <c r="A218" s="5" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C218" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D218" s="5" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E218" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F218" s="8" t="s">
-        <v>439</v>
+      <c r="F218" s="29" t="s">
+        <v>440</v>
       </c>
       <c r="G218" s="8" t="s">
         <v>21</v>
@@ -11666,7 +11776,7 @@
         <v>2022</v>
       </c>
       <c r="K218" s="8" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L218" s="5" t="s">
         <v>240</v>
@@ -11685,22 +11795,22 @@
     </row>
     <row r="219" spans="1:17">
       <c r="A219" s="5" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C219" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D219" s="5" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E219" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F219" s="8" t="s">
-        <v>439</v>
+      <c r="F219" s="29" t="s">
+        <v>440</v>
       </c>
       <c r="G219" s="8" t="s">
         <v>21</v>
@@ -11715,7 +11825,7 @@
         <v>2022</v>
       </c>
       <c r="K219" s="8" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L219" s="5" t="s">
         <v>240</v>
@@ -11734,22 +11844,22 @@
     </row>
     <row r="220" spans="1:17">
       <c r="A220" s="5" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C220" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D220" s="5" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E220" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F220" s="8" t="s">
-        <v>439</v>
+      <c r="F220" s="29" t="s">
+        <v>440</v>
       </c>
       <c r="G220" s="8" t="s">
         <v>21</v>
@@ -11764,7 +11874,7 @@
         <v>2022</v>
       </c>
       <c r="K220" s="8" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L220" s="5" t="s">
         <v>240</v>
@@ -11783,7 +11893,7 @@
     </row>
     <row r="221" spans="1:17">
       <c r="A221" s="5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B221" s="5" t="s">
         <v>46</v>
@@ -11792,13 +11902,13 @@
         <v>17</v>
       </c>
       <c r="D221" s="5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E221" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F221" s="8" t="s">
-        <v>439</v>
+      <c r="F221" s="29" t="s">
+        <v>440</v>
       </c>
       <c r="G221" s="8" t="s">
         <v>21</v>
@@ -11813,7 +11923,7 @@
         <v>2022</v>
       </c>
       <c r="K221" s="8" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L221" s="5" t="s">
         <v>48</v>
@@ -11830,7 +11940,7 @@
     </row>
     <row r="222" spans="1:17">
       <c r="A222" s="5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B222" s="5" t="s">
         <v>46</v>
@@ -11839,13 +11949,13 @@
         <v>17</v>
       </c>
       <c r="D222" s="5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E222" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F222" s="8" t="s">
-        <v>439</v>
+      <c r="F222" s="29" t="s">
+        <v>440</v>
       </c>
       <c r="G222" s="8" t="s">
         <v>21</v>
@@ -11860,7 +11970,7 @@
         <v>2022</v>
       </c>
       <c r="K222" s="8" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L222" s="5" t="s">
         <v>48</v>
@@ -11877,7 +11987,7 @@
     </row>
     <row r="223" spans="1:17">
       <c r="A223" s="5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B223" s="5" t="s">
         <v>46</v>
@@ -11886,13 +11996,13 @@
         <v>17</v>
       </c>
       <c r="D223" s="5" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E223" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F223" s="8" t="s">
-        <v>439</v>
+      <c r="F223" s="29" t="s">
+        <v>440</v>
       </c>
       <c r="G223" s="8" t="s">
         <v>21</v>
@@ -11907,7 +12017,7 @@
         <v>2022</v>
       </c>
       <c r="K223" s="8" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L223" s="5" t="s">
         <v>48</v>
@@ -11924,22 +12034,22 @@
     </row>
     <row r="224" spans="1:17">
       <c r="A224" s="5" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C224" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D224" s="5" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E224" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F224" s="8" t="s">
-        <v>439</v>
+      <c r="F224" s="29" t="s">
+        <v>440</v>
       </c>
       <c r="G224" s="8" t="s">
         <v>21</v>
@@ -11954,7 +12064,7 @@
         <v>2022</v>
       </c>
       <c r="K224" s="8" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L224" s="5" t="s">
         <v>240</v>
@@ -11973,22 +12083,22 @@
     </row>
     <row r="225" spans="1:17">
       <c r="A225" s="5" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C225" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D225" s="5" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="E225" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F225" s="8" t="s">
-        <v>439</v>
+      <c r="F225" s="29" t="s">
+        <v>440</v>
       </c>
       <c r="G225" s="8" t="s">
         <v>21</v>
@@ -12003,7 +12113,7 @@
         <v>2022</v>
       </c>
       <c r="K225" s="8" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L225" s="5" t="s">
         <v>240</v>
@@ -12022,22 +12132,22 @@
     </row>
     <row r="226" spans="1:17">
       <c r="A226" s="5" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C226" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D226" s="5" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="E226" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F226" s="8" t="s">
-        <v>439</v>
+      <c r="F226" s="29" t="s">
+        <v>440</v>
       </c>
       <c r="G226" s="8" t="s">
         <v>21</v>
@@ -12052,7 +12162,7 @@
         <v>2022</v>
       </c>
       <c r="K226" s="8" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L226" s="5" t="s">
         <v>240</v>
@@ -12071,22 +12181,22 @@
     </row>
     <row r="227" spans="1:17">
       <c r="A227" s="5" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C227" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D227" s="5" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E227" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F227" s="8" t="s">
-        <v>439</v>
+      <c r="F227" s="29" t="s">
+        <v>440</v>
       </c>
       <c r="G227" s="8" t="s">
         <v>21</v>
@@ -12101,7 +12211,7 @@
         <v>2022</v>
       </c>
       <c r="K227" s="8" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L227" s="5" t="s">
         <v>240</v>
@@ -12120,22 +12230,22 @@
     </row>
     <row r="228" spans="1:17">
       <c r="A228" s="5" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C228" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D228" s="5" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E228" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F228" s="8" t="s">
-        <v>439</v>
+      <c r="F228" s="29" t="s">
+        <v>440</v>
       </c>
       <c r="G228" s="8" t="s">
         <v>21</v>
@@ -12150,7 +12260,7 @@
         <v>2022</v>
       </c>
       <c r="K228" s="8" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L228" s="5" t="s">
         <v>240</v>
@@ -12169,22 +12279,22 @@
     </row>
     <row r="229" spans="1:17">
       <c r="A229" s="5" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C229" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D229" s="5" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="E229" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F229" s="8" t="s">
-        <v>439</v>
+      <c r="F229" s="29" t="s">
+        <v>440</v>
       </c>
       <c r="G229" s="8" t="s">
         <v>21</v>
@@ -12199,7 +12309,7 @@
         <v>2022</v>
       </c>
       <c r="K229" s="8" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L229" s="5" t="s">
         <v>240</v>
@@ -12216,9 +12326,9 @@
       <c r="P229" s="2"/>
       <c r="Q229" s="2"/>
     </row>
-    <row r="230" spans="1:17">
+    <row r="230" spans="1:17" hidden="1">
       <c r="A230" s="22" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B230" s="18" t="s">
         <v>250</v>
@@ -12227,7 +12337,7 @@
         <v>17</v>
       </c>
       <c r="D230" s="21" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="E230" s="22" t="s">
         <v>19</v>
@@ -12259,9 +12369,9 @@
       <c r="P230" s="2"/>
       <c r="Q230" s="2"/>
     </row>
-    <row r="231" spans="1:17">
+    <row r="231" spans="1:17" hidden="1">
       <c r="A231" s="22" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B231" s="18" t="s">
         <v>168</v>
@@ -12270,7 +12380,7 @@
         <v>74</v>
       </c>
       <c r="D231" s="18" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="E231" s="22" t="s">
         <v>19</v>
@@ -12302,18 +12412,18 @@
       <c r="P231" s="2"/>
       <c r="Q231" s="2"/>
     </row>
-    <row r="232" spans="1:17">
+    <row r="232" spans="1:17" hidden="1">
       <c r="A232" s="22" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B232" s="18" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C232" s="18" t="s">
         <v>220</v>
       </c>
       <c r="D232" s="21" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E232" s="22" t="s">
         <v>19</v>
@@ -12345,18 +12455,18 @@
       <c r="P232" s="2"/>
       <c r="Q232" s="2"/>
     </row>
-    <row r="233" spans="1:17">
+    <row r="233" spans="1:17" hidden="1">
       <c r="A233" s="22" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B233" s="18" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C233" s="18" t="s">
         <v>220</v>
       </c>
       <c r="D233" s="18" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E233" s="22" t="s">
         <v>19</v>
@@ -12394,7 +12504,7 @@
       <c r="C234" s="2"/>
       <c r="D234" s="2"/>
       <c r="E234" s="2"/>
-      <c r="F234" s="9"/>
+      <c r="F234" s="32"/>
       <c r="G234" s="9"/>
       <c r="H234" s="9"/>
       <c r="I234" s="9"/>
@@ -12413,7 +12523,7 @@
       <c r="C235" s="2"/>
       <c r="D235" s="2"/>
       <c r="E235" s="2"/>
-      <c r="F235" s="9"/>
+      <c r="F235" s="32"/>
       <c r="G235" s="9"/>
       <c r="H235" s="9"/>
       <c r="I235" s="9"/>
@@ -12432,7 +12542,7 @@
       <c r="C236" s="2"/>
       <c r="D236" s="2"/>
       <c r="E236" s="2"/>
-      <c r="F236" s="9"/>
+      <c r="F236" s="32"/>
       <c r="G236" s="9"/>
       <c r="H236" s="9"/>
       <c r="I236" s="9"/>
@@ -12451,7 +12561,7 @@
       <c r="C237" s="2"/>
       <c r="D237" s="2"/>
       <c r="E237" s="2"/>
-      <c r="F237" s="9"/>
+      <c r="F237" s="32"/>
       <c r="G237" s="9"/>
       <c r="H237" s="9"/>
       <c r="I237" s="9"/>
@@ -12470,7 +12580,7 @@
       <c r="C238" s="2"/>
       <c r="D238" s="2"/>
       <c r="E238" s="2"/>
-      <c r="F238" s="9"/>
+      <c r="F238" s="32"/>
       <c r="G238" s="9"/>
       <c r="H238" s="9"/>
       <c r="I238" s="9"/>
@@ -12489,7 +12599,7 @@
       <c r="C239" s="2"/>
       <c r="D239" s="2"/>
       <c r="E239" s="2"/>
-      <c r="F239" s="9"/>
+      <c r="F239" s="32"/>
       <c r="G239" s="9"/>
       <c r="H239" s="9"/>
       <c r="I239" s="9"/>
@@ -12508,7 +12618,7 @@
       <c r="C240" s="2"/>
       <c r="D240" s="2"/>
       <c r="E240" s="2"/>
-      <c r="F240" s="9"/>
+      <c r="F240" s="32"/>
       <c r="G240" s="9"/>
       <c r="H240" s="9"/>
       <c r="I240" s="9"/>
@@ -12527,7 +12637,7 @@
       <c r="C241" s="2"/>
       <c r="D241" s="2"/>
       <c r="E241" s="2"/>
-      <c r="F241" s="9"/>
+      <c r="F241" s="32"/>
       <c r="G241" s="9"/>
       <c r="H241" s="9"/>
       <c r="I241" s="9"/>
@@ -12546,7 +12656,7 @@
       <c r="C242" s="2"/>
       <c r="D242" s="2"/>
       <c r="E242" s="2"/>
-      <c r="F242" s="9"/>
+      <c r="F242" s="32"/>
       <c r="G242" s="9"/>
       <c r="H242" s="9"/>
       <c r="I242" s="9"/>
@@ -12565,7 +12675,7 @@
       <c r="C243" s="2"/>
       <c r="D243" s="2"/>
       <c r="E243" s="2"/>
-      <c r="F243" s="9"/>
+      <c r="F243" s="32"/>
       <c r="G243" s="9"/>
       <c r="H243" s="9"/>
       <c r="I243" s="9"/>
@@ -12584,7 +12694,7 @@
       <c r="C244" s="2"/>
       <c r="D244" s="2"/>
       <c r="E244" s="2"/>
-      <c r="F244" s="9"/>
+      <c r="F244" s="32"/>
       <c r="G244" s="9"/>
       <c r="H244" s="9"/>
       <c r="I244" s="9"/>
@@ -12603,7 +12713,7 @@
       <c r="C245" s="2"/>
       <c r="D245" s="2"/>
       <c r="E245" s="2"/>
-      <c r="F245" s="9"/>
+      <c r="F245" s="32"/>
       <c r="G245" s="9"/>
       <c r="H245" s="9"/>
       <c r="I245" s="9"/>
@@ -12622,7 +12732,7 @@
       <c r="C246" s="2"/>
       <c r="D246" s="2"/>
       <c r="E246" s="2"/>
-      <c r="F246" s="9"/>
+      <c r="F246" s="32"/>
       <c r="G246" s="9"/>
       <c r="H246" s="9"/>
       <c r="I246" s="9"/>
@@ -12641,7 +12751,7 @@
       <c r="C247" s="2"/>
       <c r="D247" s="3"/>
       <c r="E247" s="2"/>
-      <c r="F247" s="9"/>
+      <c r="F247" s="32"/>
       <c r="G247" s="9"/>
       <c r="H247" s="9"/>
       <c r="I247" s="9"/>
@@ -12660,7 +12770,7 @@
       <c r="C248" s="2"/>
       <c r="D248" s="3"/>
       <c r="E248" s="2"/>
-      <c r="F248" s="9"/>
+      <c r="F248" s="32"/>
       <c r="G248" s="9"/>
       <c r="H248" s="9"/>
       <c r="I248" s="9"/>
@@ -12679,7 +12789,7 @@
       <c r="C249" s="2"/>
       <c r="D249" s="3"/>
       <c r="E249" s="2"/>
-      <c r="F249" s="9"/>
+      <c r="F249" s="32"/>
       <c r="G249" s="9"/>
       <c r="H249" s="9"/>
       <c r="I249" s="9"/>
@@ -12698,7 +12808,7 @@
       <c r="C250" s="2"/>
       <c r="D250" s="2"/>
       <c r="E250" s="2"/>
-      <c r="F250" s="9"/>
+      <c r="F250" s="32"/>
       <c r="G250" s="9"/>
       <c r="H250" s="9"/>
       <c r="I250" s="9"/>
@@ -12717,7 +12827,7 @@
       <c r="C251" s="2"/>
       <c r="D251" s="2"/>
       <c r="E251" s="2"/>
-      <c r="F251" s="9"/>
+      <c r="F251" s="32"/>
       <c r="G251" s="9"/>
       <c r="H251" s="9"/>
       <c r="I251" s="9"/>
@@ -12736,7 +12846,7 @@
       <c r="C252" s="2"/>
       <c r="D252" s="2"/>
       <c r="E252" s="2"/>
-      <c r="F252" s="9"/>
+      <c r="F252" s="32"/>
       <c r="G252" s="9"/>
       <c r="H252" s="9"/>
       <c r="I252" s="9"/>
@@ -12755,7 +12865,7 @@
       <c r="C253" s="2"/>
       <c r="D253" s="2"/>
       <c r="E253" s="2"/>
-      <c r="F253" s="9"/>
+      <c r="F253" s="32"/>
       <c r="G253" s="9"/>
       <c r="H253" s="9"/>
       <c r="I253" s="9"/>
@@ -12776,7 +12886,7 @@
       <c r="C254" s="2"/>
       <c r="D254" s="2"/>
       <c r="E254" s="2"/>
-      <c r="F254" s="9"/>
+      <c r="F254" s="32"/>
       <c r="G254" s="9"/>
       <c r="H254" s="9"/>
       <c r="I254" s="9"/>
@@ -12790,13 +12900,69 @@
       <c r="Q254" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O233" xr:uid="{3A951922-FE62-483E-BD66-3D6271D7989F}"/>
+  <autoFilter ref="A1:O233" xr:uid="{3A951922-FE62-483E-BD66-3D6271D7989F}">
+    <filterColumn colId="5">
+      <filters blank="1">
+        <filter val="ALL PG (15 Credits)"/>
+        <filter val="ALL UG"/>
+        <filter val="ALL UG &amp; APPRENTICES"/>
+        <filter val="APPRENTICE ONLY"/>
+        <filter val="APPRENTICES"/>
+        <filter val="APPRENTICES SOFT ENG"/>
+        <filter val="BCAS"/>
+        <filter val="COMP &amp; DDW"/>
+        <filter val="COMP &amp; SOFT ENG"/>
+        <filter val="COMPUTING"/>
+        <filter val="COMPUTING &amp; BUSSINESS STUDENTS"/>
+        <filter val="COMPUTING &amp; L4 APPRENTICE"/>
+        <filter val="DDWD"/>
+        <filter val="FOUNDATION"/>
+        <filter val="L4 APPRENTICE ONLY"/>
+        <filter val="L4 APPRENTICES ONLY"/>
+        <filter val="MAIDS"/>
+        <filter val="MAIDS &amp; PG"/>
+        <filter val="MSc Digital Design"/>
+        <filter val="NETWORKING"/>
+        <filter val="NETWORKING APPRENTICE"/>
+        <filter val="QAHE"/>
+        <filter val="SOFT ENG"/>
+        <filter val="SOFT ENG &amp; APPRENTICES"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="11">
+      <filters>
+        <filter val="Algirdas Pakstas"/>
+        <filter val="Collette Gavan"/>
+        <filter val="Daniel Fitton"/>
+        <filter val="Kapilan Radhakrishnan"/>
+        <filter val="Mazhar Malik"/>
+        <filter val="Muhammad Naveed Anwar"/>
+        <filter val="NEED EE"/>
+        <filter val="Steve Mvalo"/>
+        <filter val="Usman Adeel"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3A90380-1012-428C-9629-B3CB0BE41A19}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:X21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D0A42F6-CDAC-407C-B8D3-685E6EFBFB37}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -12808,7 +12974,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{797E79DB-34CE-469D-90E6-B16745154421}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -12818,7 +12984,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
   </sheetData>
@@ -12826,7 +12992,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AA676F5-8491-4ECF-A63E-E8AECAF17684}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -12838,21 +13004,852 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97230EC7-4C7A-40DD-8056-FCC1047C215C}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:X21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:24" ht="60.75">
+      <c r="A1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>532</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>533</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>534</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="35" t="s">
+        <v>535</v>
+      </c>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+    </row>
+    <row r="2" spans="1:24" ht="15.75">
+      <c r="A2" s="34" t="s">
+        <v>237</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="37" t="s">
+        <v>536</v>
+      </c>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36"/>
+      <c r="X2" s="36"/>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="A3" s="33" t="s">
+        <v>397</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>398</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>351</v>
+      </c>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33" t="s">
+        <v>399</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>537</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>538</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="33">
+        <v>2022</v>
+      </c>
+      <c r="L3" s="33" t="s">
+        <v>360</v>
+      </c>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="36"/>
+      <c r="X3" s="36"/>
+    </row>
+    <row r="4" spans="1:24" ht="15.75">
+      <c r="A4" s="34" t="s">
+        <v>539</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>540</v>
+      </c>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="36"/>
+      <c r="T4" s="36"/>
+      <c r="U4" s="36"/>
+      <c r="V4" s="36"/>
+      <c r="W4" s="36"/>
+      <c r="X4" s="36"/>
+    </row>
+    <row r="5" spans="1:24" ht="15.75">
+      <c r="A5" s="34" t="s">
+        <v>541</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
+      <c r="S5" s="36"/>
+      <c r="T5" s="36"/>
+      <c r="U5" s="36"/>
+      <c r="V5" s="36"/>
+      <c r="W5" s="36"/>
+      <c r="X5" s="36"/>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6" s="33" t="s">
+        <v>402</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>403</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>351</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>542</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>404</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>537</v>
+      </c>
+      <c r="G6" s="33" t="s">
+        <v>538</v>
+      </c>
+      <c r="H6" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="33">
+        <v>2022</v>
+      </c>
+      <c r="L6" s="33" t="s">
+        <v>360</v>
+      </c>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
+      <c r="S6" s="36"/>
+      <c r="T6" s="36"/>
+      <c r="U6" s="36"/>
+      <c r="V6" s="36"/>
+      <c r="W6" s="36"/>
+      <c r="X6" s="36"/>
+    </row>
+    <row r="7" spans="1:24" ht="15.75">
+      <c r="A7" s="34" t="s">
+        <v>324</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
+      <c r="S7" s="36"/>
+      <c r="T7" s="36"/>
+      <c r="U7" s="36"/>
+      <c r="V7" s="36"/>
+      <c r="W7" s="36"/>
+      <c r="X7" s="36"/>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="A8" s="33" t="s">
+        <v>362</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>363</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>351</v>
+      </c>
+      <c r="D8" s="33"/>
+      <c r="E8" s="38" t="s">
+        <v>364</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>537</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>538</v>
+      </c>
+      <c r="H8" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="33">
+        <v>2022</v>
+      </c>
+      <c r="L8" s="33" t="s">
+        <v>360</v>
+      </c>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
+      <c r="S8" s="36"/>
+      <c r="T8" s="36"/>
+      <c r="U8" s="36"/>
+      <c r="V8" s="36"/>
+      <c r="W8" s="36"/>
+      <c r="X8" s="36"/>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="A9" s="33" t="s">
+        <v>385</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>386</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>351</v>
+      </c>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33" t="s">
+        <v>387</v>
+      </c>
+      <c r="F9" s="33" t="s">
+        <v>537</v>
+      </c>
+      <c r="G9" s="33" t="s">
+        <v>538</v>
+      </c>
+      <c r="H9" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="33">
+        <v>2022</v>
+      </c>
+      <c r="L9" s="33" t="s">
+        <v>360</v>
+      </c>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="36"/>
+      <c r="T9" s="36"/>
+      <c r="U9" s="36"/>
+      <c r="V9" s="36"/>
+      <c r="W9" s="36"/>
+      <c r="X9" s="36"/>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="A10" s="33" t="s">
+        <v>391</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>392</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>351</v>
+      </c>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33" t="s">
+        <v>393</v>
+      </c>
+      <c r="F10" s="33" t="s">
+        <v>537</v>
+      </c>
+      <c r="G10" s="33" t="s">
+        <v>538</v>
+      </c>
+      <c r="H10" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="33">
+        <v>2022</v>
+      </c>
+      <c r="L10" s="33" t="s">
+        <v>360</v>
+      </c>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
+      <c r="S10" s="36"/>
+      <c r="T10" s="36"/>
+      <c r="U10" s="36"/>
+      <c r="V10" s="36"/>
+      <c r="W10" s="36"/>
+      <c r="X10" s="36"/>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="A11" s="33" t="s">
+        <v>389</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>264</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>351</v>
+      </c>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33" t="s">
+        <v>390</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>537</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>538</v>
+      </c>
+      <c r="H11" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="33">
+        <v>2022</v>
+      </c>
+      <c r="L11" s="33" t="s">
+        <v>360</v>
+      </c>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
+      <c r="S11" s="36"/>
+      <c r="T11" s="36"/>
+      <c r="U11" s="36"/>
+      <c r="V11" s="36"/>
+      <c r="W11" s="36"/>
+      <c r="X11" s="36"/>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="A12" s="33" t="s">
+        <v>406</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>407</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>351</v>
+      </c>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33" t="s">
+        <v>408</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>537</v>
+      </c>
+      <c r="G12" s="33" t="s">
+        <v>538</v>
+      </c>
+      <c r="H12" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="33">
+        <v>2022</v>
+      </c>
+      <c r="L12" s="33" t="s">
+        <v>360</v>
+      </c>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
+      <c r="S12" s="36"/>
+      <c r="T12" s="36"/>
+      <c r="U12" s="36"/>
+      <c r="V12" s="36"/>
+      <c r="W12" s="36"/>
+      <c r="X12" s="36"/>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="A13" s="33" t="s">
+        <v>410</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>411</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>351</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>543</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>412</v>
+      </c>
+      <c r="F13" s="33" t="s">
+        <v>537</v>
+      </c>
+      <c r="G13" s="33" t="s">
+        <v>538</v>
+      </c>
+      <c r="H13" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="33">
+        <v>2022</v>
+      </c>
+      <c r="L13" s="33" t="s">
+        <v>360</v>
+      </c>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="33"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
+      <c r="S13" s="36"/>
+      <c r="T13" s="36"/>
+      <c r="U13" s="36"/>
+      <c r="V13" s="36"/>
+      <c r="W13" s="36"/>
+      <c r="X13" s="36"/>
+    </row>
+    <row r="14" spans="1:24" ht="15.75">
+      <c r="A14" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>270</v>
+      </c>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
+      <c r="S14" s="36"/>
+      <c r="T14" s="36"/>
+      <c r="U14" s="36"/>
+      <c r="V14" s="36"/>
+      <c r="W14" s="36"/>
+      <c r="X14" s="36"/>
+    </row>
+    <row r="15" spans="1:24" ht="15.75">
+      <c r="A15" s="34" t="s">
+        <v>338</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>339</v>
+      </c>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
+      <c r="S15" s="36"/>
+      <c r="T15" s="36"/>
+      <c r="U15" s="36"/>
+      <c r="V15" s="36"/>
+      <c r="W15" s="36"/>
+      <c r="X15" s="36"/>
+    </row>
+    <row r="16" spans="1:24">
+      <c r="A16" s="33" t="s">
+        <v>413</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>414</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>351</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>543</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>415</v>
+      </c>
+      <c r="F16" s="33" t="s">
+        <v>537</v>
+      </c>
+      <c r="G16" s="33" t="s">
+        <v>538</v>
+      </c>
+      <c r="H16" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16" s="33">
+        <v>2022</v>
+      </c>
+      <c r="L16" s="33" t="s">
+        <v>360</v>
+      </c>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
+      <c r="S16" s="36"/>
+      <c r="T16" s="36"/>
+      <c r="U16" s="36"/>
+      <c r="V16" s="36"/>
+      <c r="W16" s="36"/>
+      <c r="X16" s="36"/>
+    </row>
+    <row r="17" spans="1:24">
+      <c r="A17" s="33" t="s">
+        <v>358</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>351</v>
+      </c>
+      <c r="D17" s="33"/>
+      <c r="E17" s="38" t="s">
+        <v>359</v>
+      </c>
+      <c r="F17" s="33" t="s">
+        <v>537</v>
+      </c>
+      <c r="G17" s="33" t="s">
+        <v>538</v>
+      </c>
+      <c r="H17" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="J17" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="33">
+        <v>2022</v>
+      </c>
+      <c r="L17" s="33" t="s">
+        <v>360</v>
+      </c>
+      <c r="M17" s="33"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="33"/>
+      <c r="P17" s="33"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
+      <c r="S17" s="36"/>
+      <c r="T17" s="36"/>
+      <c r="U17" s="36"/>
+      <c r="V17" s="36"/>
+      <c r="W17" s="36"/>
+      <c r="X17" s="36"/>
+    </row>
+    <row r="18" spans="1:24">
+      <c r="A18" s="33"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="33"/>
+      <c r="P18" s="33"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
+      <c r="S18" s="36"/>
+      <c r="T18" s="36"/>
+      <c r="U18" s="36"/>
+      <c r="V18" s="36"/>
+      <c r="W18" s="36"/>
+      <c r="X18" s="36"/>
+    </row>
+    <row r="19" spans="1:24">
+      <c r="A19" s="36"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
+      <c r="S19" s="36"/>
+      <c r="T19" s="36"/>
+      <c r="U19" s="36"/>
+      <c r="V19" s="36"/>
+      <c r="W19" s="36"/>
+      <c r="X19" s="36"/>
+    </row>
+    <row r="20" spans="1:24">
+      <c r="A20" s="36"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
+      <c r="S20" s="36"/>
+      <c r="T20" s="36"/>
+      <c r="U20" s="36"/>
+      <c r="V20" s="36"/>
+      <c r="W20" s="36"/>
+      <c r="X20" s="36"/>
+    </row>
+    <row r="21" spans="1:24">
+      <c r="A21" s="36"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
+      <c r="S21" s="36"/>
+      <c r="T21" s="36"/>
+      <c r="U21" s="36"/>
+      <c r="V21" s="36"/>
+      <c r="W21" s="36"/>
+      <c r="X21" s="36"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCE9B689-0A46-4178-A9C4-02D50E92E37F}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/docs/Computing and Technology EE allocation 2022-23_v3.xlsx
+++ b/docs/Computing and Technology EE allocation 2022-23_v3.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ssu-my.sharepoint.com/personal/martin_reid_solent_ac_uk/Documents/solent_store/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="8_{5A06CBCF-0E11-4C34-A026-82BA149E098E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{257778E8-0AD3-40B3-AF3D-8BAF64B6553B}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="8_{5A06CBCF-0E11-4C34-A026-82BA149E098E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CFD6B68A-9F64-44CE-AF5D-0375690DBE5A}"/>
   <bookViews>
-    <workbookView xWindow="7395" yWindow="390" windowWidth="33390" windowHeight="20220" firstSheet="4" xr2:uid="{6B39098D-6163-4A05-8B22-E3E3C0B0722D}"/>
+    <workbookView xWindow="7395" yWindow="390" windowWidth="33390" windowHeight="20220" firstSheet="5" xr2:uid="{6B39098D-6163-4A05-8B22-E3E3C0B0722D}"/>
   </bookViews>
   <sheets>
     <sheet name="All Modules" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId2"/>
+    <sheet name="BCAS" sheetId="7" r:id="rId2"/>
     <sheet name="UG_Network_Cyber" sheetId="2" r:id="rId3"/>
     <sheet name="UG_Comp_Soft Eng" sheetId="3" r:id="rId4"/>
     <sheet name="PG_15_Credits" sheetId="4" r:id="rId5"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2812" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2816" uniqueCount="544">
   <si>
     <t>Module Code</t>
   </si>
@@ -1783,7 +1783,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1821,11 +1821,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1910,6 +1947,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2233,8 +2274,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:Q254"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L218" sqref="L218"/>
+    <sheetView tabSelected="1" topLeftCell="C101" workbookViewId="0">
+      <selection activeCell="F236" sqref="F236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2304,7 +2345,7 @@
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
-    <row r="2" spans="1:17" hidden="1">
+    <row r="2" spans="1:17">
       <c r="A2" s="5" t="s">
         <v>15</v>
       </c>
@@ -2347,7 +2388,7 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:17" hidden="1">
+    <row r="3" spans="1:17">
       <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
@@ -2388,7 +2429,7 @@
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
     </row>
-    <row r="4" spans="1:17" hidden="1">
+    <row r="4" spans="1:17">
       <c r="A4" s="5" t="s">
         <v>27</v>
       </c>
@@ -2431,7 +2472,7 @@
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
     </row>
-    <row r="5" spans="1:17" hidden="1">
+    <row r="5" spans="1:17">
       <c r="A5" s="15" t="s">
         <v>32</v>
       </c>
@@ -2474,7 +2515,7 @@
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
     </row>
-    <row r="6" spans="1:17" hidden="1">
+    <row r="6" spans="1:17">
       <c r="A6" s="15" t="s">
         <v>32</v>
       </c>
@@ -2517,7 +2558,7 @@
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
     </row>
-    <row r="7" spans="1:17" hidden="1">
+    <row r="7" spans="1:17">
       <c r="A7" s="5" t="s">
         <v>38</v>
       </c>
@@ -2560,7 +2601,7 @@
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
     </row>
-    <row r="8" spans="1:17" hidden="1">
+    <row r="8" spans="1:17">
       <c r="A8" s="5" t="s">
         <v>43</v>
       </c>
@@ -2607,7 +2648,7 @@
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
     </row>
-    <row r="9" spans="1:17" hidden="1">
+    <row r="9" spans="1:17">
       <c r="A9" s="5" t="s">
         <v>48</v>
       </c>
@@ -2703,7 +2744,7 @@
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
     </row>
-    <row r="11" spans="1:17" ht="30.75" hidden="1">
+    <row r="11" spans="1:17" ht="30.75">
       <c r="A11" s="5" t="s">
         <v>57</v>
       </c>
@@ -2752,7 +2793,7 @@
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
     </row>
-    <row r="12" spans="1:17" hidden="1">
+    <row r="12" spans="1:17">
       <c r="A12" s="5" t="s">
         <v>62</v>
       </c>
@@ -2793,7 +2834,7 @@
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
     </row>
-    <row r="13" spans="1:17" hidden="1">
+    <row r="13" spans="1:17">
       <c r="A13" s="5" t="s">
         <v>66</v>
       </c>
@@ -2836,7 +2877,7 @@
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
     </row>
-    <row r="14" spans="1:17" hidden="1">
+    <row r="14" spans="1:17">
       <c r="A14" s="5" t="s">
         <v>70</v>
       </c>
@@ -2877,7 +2918,7 @@
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
     </row>
-    <row r="15" spans="1:17" hidden="1">
+    <row r="15" spans="1:17">
       <c r="A15" s="5" t="s">
         <v>73</v>
       </c>
@@ -4294,7 +4335,7 @@
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
     </row>
-    <row r="48" spans="1:17" hidden="1">
+    <row r="48" spans="1:17">
       <c r="A48" s="5" t="s">
         <v>156</v>
       </c>
@@ -4337,7 +4378,7 @@
       <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
     </row>
-    <row r="49" spans="1:17" hidden="1">
+    <row r="49" spans="1:17">
       <c r="A49" s="5" t="s">
         <v>156</v>
       </c>
@@ -4380,7 +4421,7 @@
       <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
     </row>
-    <row r="50" spans="1:17" hidden="1">
+    <row r="50" spans="1:17">
       <c r="A50" s="5" t="s">
         <v>159</v>
       </c>
@@ -4423,7 +4464,7 @@
       <c r="P50" s="2"/>
       <c r="Q50" s="2"/>
     </row>
-    <row r="51" spans="1:17" hidden="1">
+    <row r="51" spans="1:17">
       <c r="A51" s="5" t="s">
         <v>163</v>
       </c>
@@ -4466,7 +4507,7 @@
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
     </row>
-    <row r="52" spans="1:17" hidden="1">
+    <row r="52" spans="1:17">
       <c r="A52" s="5" t="s">
         <v>166</v>
       </c>
@@ -4509,7 +4550,7 @@
       <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
     </row>
-    <row r="53" spans="1:17" hidden="1">
+    <row r="53" spans="1:17">
       <c r="A53" s="5" t="s">
         <v>166</v>
       </c>
@@ -4552,7 +4593,7 @@
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
     </row>
-    <row r="54" spans="1:17" hidden="1">
+    <row r="54" spans="1:17">
       <c r="A54" s="5" t="s">
         <v>166</v>
       </c>
@@ -4595,7 +4636,7 @@
       <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
     </row>
-    <row r="55" spans="1:17" hidden="1">
+    <row r="55" spans="1:17">
       <c r="A55" s="5" t="s">
         <v>169</v>
       </c>
@@ -4638,7 +4679,7 @@
       <c r="P55" s="2"/>
       <c r="Q55" s="2"/>
     </row>
-    <row r="56" spans="1:17" hidden="1">
+    <row r="56" spans="1:17">
       <c r="A56" s="5" t="s">
         <v>169</v>
       </c>
@@ -4681,7 +4722,7 @@
       <c r="P56" s="2"/>
       <c r="Q56" s="2"/>
     </row>
-    <row r="57" spans="1:17" hidden="1">
+    <row r="57" spans="1:17">
       <c r="A57" s="5" t="s">
         <v>172</v>
       </c>
@@ -4724,7 +4765,7 @@
       <c r="P57" s="2"/>
       <c r="Q57" s="2"/>
     </row>
-    <row r="58" spans="1:17" hidden="1">
+    <row r="58" spans="1:17">
       <c r="A58" s="5" t="s">
         <v>175</v>
       </c>
@@ -4765,7 +4806,7 @@
       <c r="P58" s="2"/>
       <c r="Q58" s="2"/>
     </row>
-    <row r="59" spans="1:17" hidden="1">
+    <row r="59" spans="1:17">
       <c r="A59" s="5" t="s">
         <v>178</v>
       </c>
@@ -4806,7 +4847,7 @@
       <c r="P59" s="2"/>
       <c r="Q59" s="2"/>
     </row>
-    <row r="60" spans="1:17" hidden="1">
+    <row r="60" spans="1:17">
       <c r="A60" s="5" t="s">
         <v>181</v>
       </c>
@@ -4847,7 +4888,7 @@
       <c r="P60" s="2"/>
       <c r="Q60" s="2"/>
     </row>
-    <row r="61" spans="1:17" hidden="1">
+    <row r="61" spans="1:17">
       <c r="A61" s="5" t="s">
         <v>185</v>
       </c>
@@ -4890,7 +4931,7 @@
       <c r="P61" s="2"/>
       <c r="Q61" s="2"/>
     </row>
-    <row r="62" spans="1:17" hidden="1">
+    <row r="62" spans="1:17">
       <c r="A62" s="26" t="s">
         <v>185</v>
       </c>
@@ -4931,7 +4972,7 @@
       <c r="P62" s="2"/>
       <c r="Q62" s="2"/>
     </row>
-    <row r="63" spans="1:17" hidden="1">
+    <row r="63" spans="1:17">
       <c r="A63" s="26" t="s">
         <v>185</v>
       </c>
@@ -5015,7 +5056,7 @@
       <c r="P64" s="2"/>
       <c r="Q64" s="2"/>
     </row>
-    <row r="65" spans="1:17" hidden="1">
+    <row r="65" spans="1:17">
       <c r="A65" s="5" t="s">
         <v>193</v>
       </c>
@@ -5144,7 +5185,7 @@
       <c r="P67" s="2"/>
       <c r="Q67" s="2"/>
     </row>
-    <row r="68" spans="1:17" hidden="1">
+    <row r="68" spans="1:17">
       <c r="A68" s="5" t="s">
         <v>181</v>
       </c>
@@ -5185,7 +5226,7 @@
       <c r="P68" s="2"/>
       <c r="Q68" s="2"/>
     </row>
-    <row r="69" spans="1:17" hidden="1">
+    <row r="69" spans="1:17">
       <c r="A69" s="5" t="s">
         <v>201</v>
       </c>
@@ -5226,7 +5267,7 @@
       <c r="P69" s="2"/>
       <c r="Q69" s="2"/>
     </row>
-    <row r="70" spans="1:17" hidden="1">
+    <row r="70" spans="1:17">
       <c r="A70" s="5" t="s">
         <v>201</v>
       </c>
@@ -5353,7 +5394,7 @@
       <c r="P72" s="2"/>
       <c r="Q72" s="2"/>
     </row>
-    <row r="73" spans="1:17" hidden="1">
+    <row r="73" spans="1:17">
       <c r="A73" s="5" t="s">
         <v>212</v>
       </c>
@@ -5394,7 +5435,7 @@
       <c r="P73" s="2"/>
       <c r="Q73" s="2"/>
     </row>
-    <row r="74" spans="1:17" hidden="1">
+    <row r="74" spans="1:17">
       <c r="A74" s="5" t="s">
         <v>212</v>
       </c>
@@ -5435,7 +5476,7 @@
       <c r="P74" s="2"/>
       <c r="Q74" s="2"/>
     </row>
-    <row r="75" spans="1:17" hidden="1">
+    <row r="75" spans="1:17">
       <c r="A75" s="5" t="s">
         <v>216</v>
       </c>
@@ -5476,7 +5517,7 @@
       <c r="P75" s="2"/>
       <c r="Q75" s="2"/>
     </row>
-    <row r="76" spans="1:17" hidden="1">
+    <row r="76" spans="1:17">
       <c r="A76" s="5" t="s">
         <v>216</v>
       </c>
@@ -5603,7 +5644,7 @@
       <c r="P78" s="2"/>
       <c r="Q78" s="2"/>
     </row>
-    <row r="79" spans="1:17" hidden="1">
+    <row r="79" spans="1:17">
       <c r="A79" s="5" t="s">
         <v>225</v>
       </c>
@@ -5644,7 +5685,7 @@
       <c r="P79" s="2"/>
       <c r="Q79" s="2"/>
     </row>
-    <row r="80" spans="1:17" hidden="1">
+    <row r="80" spans="1:17">
       <c r="A80" s="5" t="s">
         <v>225</v>
       </c>
@@ -6639,7 +6680,7 @@
       <c r="P100" s="2"/>
       <c r="Q100" s="2"/>
     </row>
-    <row r="101" spans="1:17" hidden="1">
+    <row r="101" spans="1:17">
       <c r="A101" s="22" t="s">
         <v>265</v>
       </c>
@@ -6682,7 +6723,7 @@
       <c r="P101" s="2"/>
       <c r="Q101" s="2"/>
     </row>
-    <row r="102" spans="1:17" hidden="1">
+    <row r="102" spans="1:17">
       <c r="A102" s="22" t="s">
         <v>268</v>
       </c>
@@ -7502,7 +7543,7 @@
       <c r="P119" s="2"/>
       <c r="Q119" s="2"/>
     </row>
-    <row r="120" spans="1:17" hidden="1">
+    <row r="120" spans="1:17">
       <c r="A120" s="5" t="s">
         <v>306</v>
       </c>
@@ -11388,7 +11429,7 @@
       <c r="P207" s="2"/>
       <c r="Q207" s="2"/>
     </row>
-    <row r="208" spans="1:17" hidden="1">
+    <row r="208" spans="1:17">
       <c r="A208" s="5" t="s">
         <v>462</v>
       </c>
@@ -11431,7 +11472,7 @@
       <c r="P208" s="2"/>
       <c r="Q208" s="2"/>
     </row>
-    <row r="209" spans="1:17" hidden="1">
+    <row r="209" spans="1:17">
       <c r="A209" s="5" t="s">
         <v>465</v>
       </c>
@@ -11474,7 +11515,7 @@
       <c r="P209" s="2"/>
       <c r="Q209" s="2"/>
     </row>
-    <row r="210" spans="1:17" hidden="1">
+    <row r="210" spans="1:17">
       <c r="A210" s="5" t="s">
         <v>468</v>
       </c>
@@ -11517,7 +11558,7 @@
       <c r="P210" s="2"/>
       <c r="Q210" s="2"/>
     </row>
-    <row r="211" spans="1:17" hidden="1">
+    <row r="211" spans="1:17">
       <c r="A211" s="5" t="s">
         <v>471</v>
       </c>
@@ -11560,7 +11601,7 @@
       <c r="P211" s="2"/>
       <c r="Q211" s="2"/>
     </row>
-    <row r="212" spans="1:17" hidden="1">
+    <row r="212" spans="1:17">
       <c r="A212" s="5" t="s">
         <v>474</v>
       </c>
@@ -11603,7 +11644,7 @@
       <c r="P212" s="2"/>
       <c r="Q212" s="2"/>
     </row>
-    <row r="213" spans="1:17" hidden="1">
+    <row r="213" spans="1:17">
       <c r="A213" s="5" t="s">
         <v>477</v>
       </c>
@@ -11646,7 +11687,7 @@
       <c r="P213" s="2"/>
       <c r="Q213" s="2"/>
     </row>
-    <row r="214" spans="1:17" hidden="1">
+    <row r="214" spans="1:17">
       <c r="A214" s="5" t="s">
         <v>480</v>
       </c>
@@ -11689,7 +11730,7 @@
       <c r="P214" s="2"/>
       <c r="Q214" s="2"/>
     </row>
-    <row r="215" spans="1:17" hidden="1">
+    <row r="215" spans="1:17">
       <c r="A215" s="5" t="s">
         <v>483</v>
       </c>
@@ -11732,7 +11773,7 @@
       <c r="P215" s="2"/>
       <c r="Q215" s="2"/>
     </row>
-    <row r="216" spans="1:17" hidden="1">
+    <row r="216" spans="1:17">
       <c r="A216" s="5" t="s">
         <v>486</v>
       </c>
@@ -11775,7 +11816,7 @@
       <c r="P216" s="2"/>
       <c r="Q216" s="2"/>
     </row>
-    <row r="217" spans="1:17" hidden="1">
+    <row r="217" spans="1:17">
       <c r="A217" s="5" t="s">
         <v>327</v>
       </c>
@@ -11867,7 +11908,7 @@
       <c r="P218" s="2"/>
       <c r="Q218" s="2"/>
     </row>
-    <row r="219" spans="1:17" hidden="1">
+    <row r="219" spans="1:17">
       <c r="A219" s="5" t="s">
         <v>493</v>
       </c>
@@ -11908,7 +11949,7 @@
       <c r="P219" s="2"/>
       <c r="Q219" s="2"/>
     </row>
-    <row r="220" spans="1:17" hidden="1">
+    <row r="220" spans="1:17">
       <c r="A220" s="5" t="s">
         <v>496</v>
       </c>
@@ -11949,7 +11990,7 @@
       <c r="P220" s="2"/>
       <c r="Q220" s="2"/>
     </row>
-    <row r="221" spans="1:17" hidden="1">
+    <row r="221" spans="1:17">
       <c r="A221" s="5" t="s">
         <v>496</v>
       </c>
@@ -11990,7 +12031,7 @@
       <c r="P221" s="2"/>
       <c r="Q221" s="2"/>
     </row>
-    <row r="222" spans="1:17" hidden="1">
+    <row r="222" spans="1:17">
       <c r="A222" s="5" t="s">
         <v>500</v>
       </c>
@@ -12031,7 +12072,7 @@
       <c r="P222" s="2"/>
       <c r="Q222" s="2"/>
     </row>
-    <row r="223" spans="1:17" hidden="1">
+    <row r="223" spans="1:17">
       <c r="A223" s="5" t="s">
         <v>502</v>
       </c>
@@ -12072,7 +12113,7 @@
       <c r="P223" s="2"/>
       <c r="Q223" s="2"/>
     </row>
-    <row r="224" spans="1:17" hidden="1">
+    <row r="224" spans="1:17">
       <c r="A224" s="5" t="s">
         <v>505</v>
       </c>
@@ -12115,7 +12156,7 @@
       <c r="P224" s="2"/>
       <c r="Q224" s="2"/>
     </row>
-    <row r="225" spans="1:17" hidden="1">
+    <row r="225" spans="1:17">
       <c r="A225" s="5" t="s">
         <v>505</v>
       </c>
@@ -12158,7 +12199,7 @@
       <c r="P225" s="2"/>
       <c r="Q225" s="2"/>
     </row>
-    <row r="226" spans="1:17" hidden="1">
+    <row r="226" spans="1:17">
       <c r="A226" s="5" t="s">
         <v>510</v>
       </c>
@@ -12201,7 +12242,7 @@
       <c r="P226" s="2"/>
       <c r="Q226" s="2"/>
     </row>
-    <row r="227" spans="1:17" hidden="1">
+    <row r="227" spans="1:17">
       <c r="A227" s="5" t="s">
         <v>510</v>
       </c>
@@ -12244,7 +12285,7 @@
       <c r="P227" s="2"/>
       <c r="Q227" s="2"/>
     </row>
-    <row r="228" spans="1:17" hidden="1">
+    <row r="228" spans="1:17">
       <c r="A228" s="5" t="s">
         <v>514</v>
       </c>
@@ -12287,7 +12328,7 @@
       <c r="P228" s="2"/>
       <c r="Q228" s="2"/>
     </row>
-    <row r="229" spans="1:17" hidden="1">
+    <row r="229" spans="1:17">
       <c r="A229" s="5" t="s">
         <v>518</v>
       </c>
@@ -12939,11 +12980,6 @@
         <filter val="Shakeel Ahmad"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="11">
-      <filters>
-        <filter val="Collette Gavan"/>
-      </filters>
-    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O233">
       <sortCondition ref="K1:K233"/>
     </sortState>
@@ -12955,12 +12991,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3A90380-1012-428C-9629-B3CB0BE41A19}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="44.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" s="40" t="s">
+        <v>369</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="42" t="s">
+        <v>456</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>457</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -13012,7 +13070,7 @@
   <dimension ref="A1:X21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
